--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F6013D-462D-4B4F-B396-B1F39BEFBBE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A73467-B5BC-4CAC-9A8E-D29657B56362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
+    <workbookView xWindow="825" yWindow="1140" windowWidth="26490" windowHeight="14520" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="464">
   <si>
     <t>QTY</t>
   </si>
@@ -191,9 +191,6 @@
     <t>42STH40-100AC</t>
   </si>
   <si>
-    <t>GT2-16T-6-D</t>
-  </si>
-  <si>
     <t>MULDEX-22-01</t>
   </si>
   <si>
@@ -221,12 +218,6 @@
     <t>MULDEX-20</t>
   </si>
   <si>
-    <t>GT2-20T-6-SI</t>
-  </si>
-  <si>
-    <t>GT2-20T-6-I</t>
-  </si>
-  <si>
     <t>MULDEX-20-01</t>
   </si>
   <si>
@@ -377,18 +368,12 @@
     <t>MULDEX-16-01</t>
   </si>
   <si>
-    <t>GT2-20T-9-D</t>
-  </si>
-  <si>
     <t>MULDEX-16-03</t>
   </si>
   <si>
     <t>MULDEX-16-04</t>
   </si>
   <si>
-    <t>GT2-20T-9-I</t>
-  </si>
-  <si>
     <t>MULDEX-16-02</t>
   </si>
   <si>
@@ -605,9 +590,6 @@
     <t>MULDEX-34</t>
   </si>
   <si>
-    <t>GATES GT2 TIMING BELT</t>
-  </si>
-  <si>
     <t>BACK COVER PANNEL</t>
   </si>
   <si>
@@ -896,9 +878,6 @@
     <t>Z-AXIS BELT ASSY, 1</t>
   </si>
   <si>
-    <t>GT2 GATES TIMING BELT</t>
-  </si>
-  <si>
     <t>Z-AXIS MOTOR MOUNT, 1&amp;3</t>
   </si>
   <si>
@@ -1148,9 +1127,6 @@
     <t>LDO</t>
   </si>
   <si>
-    <t>3D FUSED</t>
-  </si>
-  <si>
     <t>MISUMI</t>
   </si>
   <si>
@@ -1160,9 +1136,6 @@
     <t>CAPRICORN</t>
   </si>
   <si>
-    <t>3DFUSED</t>
-  </si>
-  <si>
     <t>KEENOVO</t>
   </si>
   <si>
@@ -1217,9 +1190,6 @@
     <t>SM-DU-100</t>
   </si>
   <si>
-    <t>BLTOUCH - 100 MM CABLE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> HOT BLOCK</t>
   </si>
   <si>
@@ -1289,9 +1259,6 @@
     <t>LDO LINEAR RAIL, W/2 BEARINGS</t>
   </si>
   <si>
-    <t>3D Fused or contact LDO directly</t>
-  </si>
-  <si>
     <t>MISUMI PN: HFSB5-2040-455</t>
   </si>
   <si>
@@ -1436,10 +1403,31 @@
     <t>TOTAL COST:</t>
   </si>
   <si>
-    <t>(REF ONLY)</t>
-  </si>
-  <si>
     <t xml:space="preserve">MISUMI PN: HFSB5-2040-60-SC </t>
+  </si>
+  <si>
+    <t>(REF ONLY, CONTAINS OPTIONS)</t>
+  </si>
+  <si>
+    <t>BLTOUCH - 1 M CABLE</t>
+  </si>
+  <si>
+    <t>GATES 2GT TIMING BELT</t>
+  </si>
+  <si>
+    <t>2GT-16T-6-D</t>
+  </si>
+  <si>
+    <t>2GT-20T-6-I</t>
+  </si>
+  <si>
+    <t>2GT-20T-6-SI</t>
+  </si>
+  <si>
+    <t>2GT-20T-9-D</t>
+  </si>
+  <si>
+    <t>2GT-20T-9-I</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1438,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,13 +1462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1583,7 +1564,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1599,16 +1580,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -14791,56 +14771,6 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="951" name="Picture 950">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAFC6C8-870F-4AD2-8314-5A32F10E2440}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId188">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10261600" y="147459700"/>
-          <a:ext cx="885825" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
@@ -14864,7 +14794,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId189">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId188">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14914,7 +14844,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId190">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId189">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14964,7 +14894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId191">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId190">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15064,7 +14994,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId192">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId191">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15114,7 +15044,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId193">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId192">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15164,7 +15094,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId194">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId193">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15214,7 +15144,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId195">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId194">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15264,7 +15194,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId196">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId195">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15364,7 +15294,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId197">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId196">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15564,7 +15494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId198">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId197">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15614,7 +15544,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId199">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId198">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15664,7 +15594,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId200">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId199">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15764,7 +15694,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId201">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId200">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15814,7 +15744,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId202">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId201">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15864,7 +15794,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId203">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId202">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15914,7 +15844,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId204">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId203">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15964,7 +15894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId205">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId204">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16114,7 +16044,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId206">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId205">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16164,7 +16094,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId207">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId206">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16664,7 +16594,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId208" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId207" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16714,7 +16644,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId209" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId208" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16728,6 +16658,56 @@
         <a:xfrm>
           <a:off x="4914901" y="619126"/>
           <a:ext cx="1885950" cy="827622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="304" name="Picture 303">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27286454-9B6B-4F36-97CB-C4DA2796DC4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId209">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="153057225"/>
+          <a:ext cx="885825" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17038,8 +17018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF5A505-CFB3-4021-9A3B-B7B5A3891831}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17055,26 +17035,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17">
+      <c r="A1" s="16">
         <v>44010</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="F1" s="20">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1" s="19">
         <f>SUM(H3:H228)</f>
         <v>2720.6750000000011</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="G1" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -17093,16 +17073,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17110,13 +17090,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
@@ -17129,22 +17109,20 @@
         <f>G3*F3</f>
         <v>60</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>417</v>
-      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
@@ -17157,22 +17135,20 @@
         <f t="shared" ref="H4:H67" si="0">G4*F4</f>
         <v>50</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>417</v>
-      </c>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
@@ -17185,22 +17161,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>417</v>
-      </c>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -17214,7 +17188,7 @@
         <v>84</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17222,13 +17196,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -17244,13 +17218,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
@@ -17262,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17270,13 +17244,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
@@ -17288,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17296,13 +17270,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -17318,13 +17292,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
@@ -17335,7 +17309,7 @@
         <v>10.210000000000001</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17343,13 +17317,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
@@ -17360,7 +17334,7 @@
         <v>13.36</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17368,13 +17342,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
@@ -17385,7 +17359,7 @@
         <v>17.670000000000002</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17393,13 +17367,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -17410,7 +17384,7 @@
         <v>17.670000000000002</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17418,13 +17392,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
@@ -17435,7 +17409,7 @@
         <v>13.78</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17443,13 +17417,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
@@ -17460,7 +17434,7 @@
         <v>18.61</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17468,13 +17442,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
@@ -17485,7 +17459,7 @@
         <v>17.87</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17493,13 +17467,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
@@ -17510,7 +17484,7 @@
         <v>19.32</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17518,13 +17492,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -17540,13 +17514,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -17562,13 +17536,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -17584,13 +17558,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -17606,13 +17580,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -17628,13 +17602,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -17650,13 +17624,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -17675,10 +17649,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -17694,13 +17668,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -17716,13 +17690,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -17738,13 +17712,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -17760,13 +17734,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -17782,13 +17756,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -17804,13 +17778,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -17826,13 +17800,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="5"/>
@@ -17848,13 +17822,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -17870,13 +17844,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -17892,13 +17866,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -17914,13 +17888,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -17936,13 +17910,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -17958,13 +17932,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -17980,13 +17954,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -18005,10 +17979,10 @@
         <v>49</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -18024,13 +17998,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -18046,13 +18020,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -18068,13 +18042,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -18093,10 +18067,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="5"/>
@@ -18112,13 +18086,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -18137,10 +18111,10 @@
         <v>16</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -18159,10 +18133,10 @@
         <v>29</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -18181,10 +18155,10 @@
         <v>36</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -18203,10 +18177,10 @@
         <v>39</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -18222,13 +18196,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -18247,10 +18221,10 @@
         <v>19</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -18266,13 +18240,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -18291,10 +18265,10 @@
         <v>7</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -18313,10 +18287,10 @@
         <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -18335,10 +18309,10 @@
         <v>40</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -18357,10 +18331,10 @@
         <v>42</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -18376,13 +18350,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -18398,13 +18372,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
@@ -18424,13 +18398,13 @@
         <v>51</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
@@ -18453,10 +18427,10 @@
         <v>13</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5">
@@ -18477,10 +18451,10 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5">
@@ -18494,7 +18468,7 @@
         <v>42.99</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -18502,13 +18476,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -18524,13 +18498,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -18546,13 +18520,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -18568,13 +18542,13 @@
         <v>2</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -18590,13 +18564,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -18612,13 +18586,13 @@
         <v>2</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -18634,13 +18608,13 @@
         <v>2</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -18656,13 +18630,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -18678,13 +18652,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -18700,13 +18674,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -18722,13 +18696,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -18744,13 +18718,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -18766,13 +18740,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -18788,13 +18762,13 @@
         <v>1</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -18810,13 +18784,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -18832,13 +18806,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -18854,13 +18828,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -18876,13 +18850,13 @@
         <v>1</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -18898,13 +18872,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -18920,13 +18894,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -18942,13 +18916,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -18964,13 +18938,13 @@
         <v>2</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -18986,13 +18960,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -19008,13 +18982,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -19030,13 +19004,13 @@
         <v>2</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -19052,13 +19026,13 @@
         <v>2</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -19074,13 +19048,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -19096,13 +19070,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -19118,13 +19092,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -19140,13 +19114,13 @@
         <v>2</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -19162,13 +19136,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -19184,13 +19158,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -19206,13 +19180,13 @@
         <v>2</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -19228,13 +19202,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -19250,13 +19224,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -19272,13 +19246,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -19294,13 +19268,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -19316,13 +19290,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -19338,13 +19312,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -19360,13 +19334,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -19382,13 +19356,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -19404,13 +19378,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -19426,13 +19400,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -19448,13 +19422,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -19470,13 +19444,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -19492,13 +19466,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -19514,13 +19488,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -19536,13 +19510,13 @@
         <v>1</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -19558,13 +19532,13 @@
         <v>1</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -19580,13 +19554,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -19602,13 +19576,13 @@
         <v>1</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -19624,13 +19598,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -19646,13 +19620,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -19671,10 +19645,10 @@
         <v>47</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -19690,13 +19664,13 @@
         <v>2</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -19712,13 +19686,13 @@
         <v>2</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -19737,10 +19711,10 @@
         <v>18</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -19759,10 +19733,10 @@
         <v>30</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -19781,10 +19755,10 @@
         <v>31</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -19803,10 +19777,10 @@
         <v>32</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -19825,10 +19799,10 @@
         <v>33</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -19847,10 +19821,10 @@
         <v>34</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -19869,10 +19843,10 @@
         <v>38</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -19888,13 +19862,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -19910,13 +19884,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C127" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -19932,13 +19906,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -19957,10 +19931,10 @@
         <v>20</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -19979,10 +19953,10 @@
         <v>21</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -20001,10 +19975,10 @@
         <v>22</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -20023,10 +19997,10 @@
         <v>23</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -20045,10 +20019,10 @@
         <v>9</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -20067,10 +20041,10 @@
         <v>10</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -20089,10 +20063,10 @@
         <v>11</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -20111,10 +20085,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -20133,10 +20107,10 @@
         <v>27</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -20155,10 +20129,10 @@
         <v>28</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -20177,10 +20151,10 @@
         <v>41</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -20199,10 +20173,10 @@
         <v>42</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -20218,13 +20192,13 @@
         <v>3</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5">
@@ -20238,7 +20212,7 @@
         <v>149.97</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20246,13 +20220,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5">
@@ -20266,7 +20240,7 @@
         <v>140</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20274,13 +20248,13 @@
         <v>2</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5">
@@ -20300,13 +20274,13 @@
         <v>2</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5">
@@ -20329,10 +20303,10 @@
         <v>5630</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5">
@@ -20355,10 +20329,10 @@
         <v>35</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5">
@@ -20378,13 +20352,13 @@
         <v>18</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5">
@@ -20407,10 +20381,10 @@
         <v>48</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>189</v>
+        <v>458</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5">
@@ -20433,10 +20407,10 @@
         <v>5</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>189</v>
+        <v>458</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5">
@@ -20459,10 +20433,10 @@
         <v>8</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5">
@@ -20482,13 +20456,13 @@
         <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>286</v>
+        <v>458</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5">
@@ -20508,13 +20482,13 @@
         <v>1</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5">
@@ -20534,13 +20508,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5">
@@ -20560,13 +20534,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5">
@@ -20586,13 +20560,13 @@
         <v>1</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5">
@@ -20612,13 +20586,13 @@
         <v>2</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5">
@@ -20638,13 +20612,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>51</v>
+        <v>459</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5">
@@ -20664,13 +20638,13 @@
         <v>9</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>62</v>
+        <v>460</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5">
@@ -20690,13 +20664,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>61</v>
+        <v>461</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5">
@@ -20716,13 +20690,13 @@
         <v>3</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>113</v>
+        <v>462</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5">
@@ -20735,8 +20709,8 @@
         <f t="shared" si="2"/>
         <v>17.97</v>
       </c>
-      <c r="I160" s="25" t="s">
-        <v>391</v>
+      <c r="I160" s="24" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20744,13 +20718,13 @@
         <v>3</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>116</v>
+        <v>463</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5">
@@ -20770,13 +20744,13 @@
         <v>6</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5">
@@ -20796,13 +20770,13 @@
         <v>6</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5">
@@ -20822,13 +20796,13 @@
         <v>1</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5">
@@ -20848,13 +20822,13 @@
         <v>1</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5">
@@ -20877,10 +20851,10 @@
         <v>46</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5">
@@ -20903,10 +20877,10 @@
         <v>50</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5">
@@ -20926,13 +20900,13 @@
         <v>3</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5">
@@ -20955,10 +20929,10 @@
         <v>24</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5">
@@ -20978,13 +20952,13 @@
         <v>3</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5">
@@ -21004,13 +20978,13 @@
         <v>5</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5">
@@ -21030,13 +21004,13 @@
         <v>6</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5">
@@ -21056,13 +21030,13 @@
         <v>6</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5">
@@ -21082,13 +21056,13 @@
         <v>4</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5">
@@ -21102,7 +21076,7 @@
         <v>1.31</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21113,10 +21087,10 @@
         <v>15</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5">
@@ -21136,19 +21110,19 @@
         <v>2</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>367</v>
+        <v>303</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13">
         <v>1</v>
       </c>
-      <c r="G176" s="16">
+      <c r="G176" s="15">
         <v>15.47</v>
       </c>
       <c r="H176" s="7">
@@ -21161,14 +21135,14 @@
       <c r="A177" s="12">
         <v>5</v>
       </c>
-      <c r="B177" s="23" t="s">
-        <v>151</v>
+      <c r="B177" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12">
@@ -21177,7 +21151,7 @@
       <c r="G177" s="12">
         <v>9.68</v>
       </c>
-      <c r="H177" s="24">
+      <c r="H177" s="23">
         <f t="shared" si="2"/>
         <v>9.68</v>
       </c>
@@ -21191,10 +21165,10 @@
         <v>25</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5">
@@ -21214,13 +21188,13 @@
         <v>17</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5">
@@ -21240,13 +21214,13 @@
         <v>1</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5">
@@ -21266,13 +21240,13 @@
         <v>1</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5">
@@ -21293,10 +21267,10 @@
         <v>14</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5">
@@ -21316,13 +21290,13 @@
         <v>4</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5">
@@ -21345,10 +21319,10 @@
         <v>6</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -21358,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21366,13 +21340,13 @@
         <v>1</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -21382,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21393,10 +21367,10 @@
         <v>37</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -21406,7 +21380,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21414,13 +21388,13 @@
         <v>1</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C187" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D187" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -21430,7 +21404,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21438,13 +21412,13 @@
         <v>2</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5">
@@ -21464,13 +21438,13 @@
         <v>2</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5">
@@ -21490,13 +21464,13 @@
         <v>2</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5">
@@ -21516,13 +21490,13 @@
         <v>2</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5">
@@ -21542,13 +21516,13 @@
         <v>2</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5">
@@ -21568,13 +21542,13 @@
         <v>2</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5">
@@ -21594,13 +21568,13 @@
         <v>2</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5">
@@ -21620,13 +21594,13 @@
         <v>2</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5">
@@ -21649,10 +21623,10 @@
         <v>17</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5">
@@ -21675,10 +21649,10 @@
         <v>45</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -21694,13 +21668,13 @@
         <v>1</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5">
@@ -21720,13 +21694,13 @@
         <v>1</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5">
@@ -21746,10 +21720,10 @@
         <v>43</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -21766,10 +21740,10 @@
         <v>15</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -21786,10 +21760,10 @@
         <v>6</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -21806,10 +21780,10 @@
         <v>4</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -21826,10 +21800,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -21846,10 +21820,10 @@
         <v>16</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -21866,10 +21840,10 @@
         <v>47</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -21886,10 +21860,10 @@
         <v>37</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -21906,10 +21880,10 @@
         <v>2</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -21926,10 +21900,10 @@
         <v>4</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -21946,10 +21920,10 @@
         <v>8</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -21966,10 +21940,10 @@
         <v>3</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -21986,10 +21960,10 @@
         <v>4</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -22006,10 +21980,10 @@
         <v>4</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -22026,10 +22000,10 @@
         <v>69</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -22046,10 +22020,10 @@
         <v>12</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -22066,10 +22040,10 @@
         <v>48</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -22086,10 +22060,10 @@
         <v>22</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -22106,10 +22080,10 @@
         <v>2</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -22126,10 +22100,10 @@
         <v>8</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -22146,10 +22120,10 @@
         <v>4</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -22166,10 +22140,10 @@
         <v>10</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -22186,10 +22160,10 @@
         <v>4</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -22206,10 +22180,10 @@
         <v>22</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -22226,10 +22200,10 @@
         <v>6</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -22246,10 +22220,10 @@
         <v>43</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -22266,10 +22240,10 @@
         <v>3</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -22286,10 +22260,10 @@
         <v>8</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -22306,10 +22280,10 @@
         <v>8</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -22404,7 +22378,7 @@
     <hyperlink ref="D145" r:id="rId2" xr:uid="{BFC10C57-23AA-40DC-9868-265C0E01AB00}"/>
     <hyperlink ref="D61" r:id="rId3" xr:uid="{2013A8C9-837B-4834-8E7C-703737F0F43D}"/>
     <hyperlink ref="D60" r:id="rId4" xr:uid="{6C1E4D21-A1AF-4664-805E-9EB49AEE26E4}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{C6567402-A6A5-4BB9-A0EF-279C3459A544}"/>
+    <hyperlink ref="D6" r:id="rId5" display="3DFUSED" xr:uid="{C6567402-A6A5-4BB9-A0EF-279C3459A544}"/>
     <hyperlink ref="D183" r:id="rId6" display="N/A" xr:uid="{C575B612-8CD6-4D8B-A818-472E27A0DF5F}"/>
     <hyperlink ref="D195" r:id="rId7" display="SoundOriginal " xr:uid="{DC765517-5999-43CA-B056-8D4BE4F0D59C}"/>
     <hyperlink ref="D198" r:id="rId8" xr:uid="{75DD3A4D-0E81-4EB6-85A8-ED4E392D5A76}"/>
@@ -22450,7 +22424,7 @@
     <hyperlink ref="D151" r:id="rId48" xr:uid="{B19E1AAA-D530-4E4B-BA24-D990D04D340B}"/>
     <hyperlink ref="D149" r:id="rId49" xr:uid="{ED83E237-0604-409A-A4D8-11DCAC85924E}"/>
     <hyperlink ref="D148" r:id="rId50" xr:uid="{BB7F82D0-EB21-48AB-B71D-FA4E46D1F0DA}"/>
-    <hyperlink ref="D176" r:id="rId51" display="PDB INC" xr:uid="{8E4210A8-449F-4230-9E35-C3E1EBB630F1}"/>
+    <hyperlink ref="D176" r:id="rId51" display="MCMASTER" xr:uid="{8E4210A8-449F-4230-9E35-C3E1EBB630F1}"/>
     <hyperlink ref="D184" r:id="rId52" xr:uid="{6406FCB3-590F-4EFD-90F5-6121F507CA39}"/>
     <hyperlink ref="D185" r:id="rId53" xr:uid="{0FC22817-C018-4654-B460-1E1AB5F26FB9}"/>
     <hyperlink ref="D186" r:id="rId54" xr:uid="{FF6D95F2-38C4-4B5C-A8F7-9C1CBE29BCCF}"/>

--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A73467-B5BC-4CAC-9A8E-D29657B56362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA5F0BB-D4DA-4604-A27E-9A2FBDE71668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="1140" windowWidth="26490" windowHeight="14520" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="22800" windowHeight="14520" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -893,9 +893,6 @@
     <t>Z-AXIS COUPLING, 1</t>
   </si>
   <si>
-    <t>DOWEL PIN, 5MM X 24MM</t>
-  </si>
-  <si>
     <t>PLANETARY STEPPER MOTOR, 40MM 13.7/1</t>
   </si>
   <si>
@@ -1428,6 +1425,9 @@
   </si>
   <si>
     <t>2GT-20T-9-I</t>
+  </si>
+  <si>
+    <t>DOWEL PIN, 5MM X 26MM</t>
   </si>
 </sst>
 </file>
@@ -17018,8 +17018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF5A505-CFB3-4021-9A3B-B7B5A3891831}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17041,17 +17041,17 @@
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>453</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>454</v>
       </c>
       <c r="F1" s="19">
         <f>SUM(H3:H228)</f>
         <v>2720.6750000000011</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="18"/>
@@ -17073,16 +17073,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17093,10 +17093,10 @@
         <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
@@ -17119,10 +17119,10 @@
         <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
@@ -17145,10 +17145,10 @@
         <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
@@ -17174,7 +17174,7 @@
         <v>274</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -17188,7 +17188,7 @@
         <v>84</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17199,10 +17199,10 @@
         <v>128</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -17221,10 +17221,10 @@
         <v>176</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17247,10 +17247,10 @@
         <v>177</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
@@ -17262,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17273,10 +17273,10 @@
         <v>156</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -17295,10 +17295,10 @@
         <v>158</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
@@ -17309,7 +17309,7 @@
         <v>10.210000000000001</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17320,10 +17320,10 @@
         <v>164</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
@@ -17334,7 +17334,7 @@
         <v>13.36</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17345,10 +17345,10 @@
         <v>157</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
@@ -17359,7 +17359,7 @@
         <v>17.670000000000002</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17370,10 +17370,10 @@
         <v>161</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -17384,7 +17384,7 @@
         <v>17.670000000000002</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17395,10 +17395,10 @@
         <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
@@ -17409,7 +17409,7 @@
         <v>13.78</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17420,10 +17420,10 @@
         <v>159</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
@@ -17434,7 +17434,7 @@
         <v>18.61</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17445,10 +17445,10 @@
         <v>160</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
@@ -17459,7 +17459,7 @@
         <v>17.87</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17470,10 +17470,10 @@
         <v>163</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
@@ -17484,7 +17484,7 @@
         <v>19.32</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17495,10 +17495,10 @@
         <v>165</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -17517,10 +17517,10 @@
         <v>144</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -17539,10 +17539,10 @@
         <v>148</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -17561,10 +17561,10 @@
         <v>150</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -17583,10 +17583,10 @@
         <v>152</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -17605,10 +17605,10 @@
         <v>154</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -17627,10 +17627,10 @@
         <v>129</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -17652,7 +17652,7 @@
         <v>222</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -17674,7 +17674,7 @@
         <v>245</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -17696,7 +17696,7 @@
         <v>248</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -17718,7 +17718,7 @@
         <v>247</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -17740,7 +17740,7 @@
         <v>247</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -17762,7 +17762,7 @@
         <v>249</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -17784,7 +17784,7 @@
         <v>264</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -17806,7 +17806,7 @@
         <v>268</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="5"/>
@@ -17828,7 +17828,7 @@
         <v>272</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -17850,7 +17850,7 @@
         <v>279</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -17869,10 +17869,10 @@
         <v>123</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -17891,10 +17891,10 @@
         <v>119</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -17916,7 +17916,7 @@
         <v>273</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -17938,7 +17938,7 @@
         <v>238</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -17960,7 +17960,7 @@
         <v>238</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -17982,7 +17982,7 @@
         <v>227</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -18004,7 +18004,7 @@
         <v>232</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -18026,7 +18026,7 @@
         <v>234</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -18048,7 +18048,7 @@
         <v>236</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -18070,7 +18070,7 @@
         <v>223</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="5"/>
@@ -18089,10 +18089,10 @@
         <v>141</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -18114,7 +18114,7 @@
         <v>194</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -18136,7 +18136,7 @@
         <v>206</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -18158,7 +18158,7 @@
         <v>214</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -18180,7 +18180,7 @@
         <v>217</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -18199,10 +18199,10 @@
         <v>178</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -18224,7 +18224,7 @@
         <v>196</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -18243,10 +18243,10 @@
         <v>183</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -18268,7 +18268,7 @@
         <v>185</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -18290,7 +18290,7 @@
         <v>203</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -18312,7 +18312,7 @@
         <v>218</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -18334,7 +18334,7 @@
         <v>220</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -18356,7 +18356,7 @@
         <v>275</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -18375,10 +18375,10 @@
         <v>130</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
@@ -18404,7 +18404,7 @@
         <v>191</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
@@ -18430,7 +18430,7 @@
         <v>191</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5">
@@ -18451,10 +18451,10 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5">
@@ -18468,7 +18468,7 @@
         <v>42.99</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -18476,13 +18476,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -18501,10 +18501,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -18523,10 +18523,10 @@
         <v>135</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -18545,10 +18545,10 @@
         <v>136</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -18567,10 +18567,10 @@
         <v>137</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -18589,10 +18589,10 @@
         <v>139</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -18611,10 +18611,10 @@
         <v>138</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -18633,10 +18633,10 @@
         <v>140</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -18655,10 +18655,10 @@
         <v>169</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -18677,10 +18677,10 @@
         <v>173</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -18699,10 +18699,10 @@
         <v>174</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -18721,10 +18721,10 @@
         <v>175</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -18743,10 +18743,10 @@
         <v>147</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -18765,10 +18765,10 @@
         <v>149</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -18787,10 +18787,10 @@
         <v>151</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -18809,10 +18809,10 @@
         <v>153</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -18831,10 +18831,10 @@
         <v>155</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -18853,10 +18853,10 @@
         <v>131</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -18875,10 +18875,10 @@
         <v>132</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -18900,7 +18900,7 @@
         <v>249</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -18922,7 +18922,7 @@
         <v>251</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -18944,7 +18944,7 @@
         <v>254</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -18966,7 +18966,7 @@
         <v>255</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -18988,7 +18988,7 @@
         <v>256</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -19010,7 +19010,7 @@
         <v>257</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -19032,7 +19032,7 @@
         <v>258</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -19054,7 +19054,7 @@
         <v>264</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -19076,7 +19076,7 @@
         <v>266</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -19098,7 +19098,7 @@
         <v>267</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -19120,7 +19120,7 @@
         <v>269</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -19142,7 +19142,7 @@
         <v>270</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -19164,7 +19164,7 @@
         <v>271</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -19186,7 +19186,7 @@
         <v>280</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -19208,7 +19208,7 @@
         <v>284</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -19230,7 +19230,7 @@
         <v>281</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -19252,7 +19252,7 @@
         <v>282</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -19271,10 +19271,10 @@
         <v>116</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -19293,10 +19293,10 @@
         <v>118</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -19315,10 +19315,10 @@
         <v>124</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -19337,10 +19337,10 @@
         <v>125</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -19359,10 +19359,10 @@
         <v>127</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -19381,10 +19381,10 @@
         <v>126</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -19403,10 +19403,10 @@
         <v>121</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -19425,10 +19425,10 @@
         <v>120</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -19447,10 +19447,10 @@
         <v>122</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -19472,7 +19472,7 @@
         <v>277</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -19494,7 +19494,7 @@
         <v>241</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -19516,7 +19516,7 @@
         <v>244</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -19538,7 +19538,7 @@
         <v>230</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -19560,7 +19560,7 @@
         <v>231</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -19582,7 +19582,7 @@
         <v>233</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -19604,7 +19604,7 @@
         <v>235</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -19626,7 +19626,7 @@
         <v>237</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -19648,7 +19648,7 @@
         <v>226</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -19667,10 +19667,10 @@
         <v>142</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -19689,10 +19689,10 @@
         <v>143</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -19714,7 +19714,7 @@
         <v>195</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -19736,7 +19736,7 @@
         <v>207</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -19758,7 +19758,7 @@
         <v>208</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -19780,7 +19780,7 @@
         <v>209</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -19802,7 +19802,7 @@
         <v>210</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -19824,7 +19824,7 @@
         <v>211</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -19865,10 +19865,10 @@
         <v>180</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -19887,10 +19887,10 @@
         <v>181</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -19909,10 +19909,10 @@
         <v>182</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -19934,7 +19934,7 @@
         <v>197</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -19956,7 +19956,7 @@
         <v>198</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -19978,7 +19978,7 @@
         <v>199</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -20000,7 +20000,7 @@
         <v>200</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -20022,7 +20022,7 @@
         <v>187</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -20044,7 +20044,7 @@
         <v>188</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -20066,7 +20066,7 @@
         <v>189</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -20088,7 +20088,7 @@
         <v>190</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -20110,7 +20110,7 @@
         <v>204</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -20132,7 +20132,7 @@
         <v>205</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -20154,7 +20154,7 @@
         <v>219</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -20176,7 +20176,7 @@
         <v>221</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -20192,13 +20192,13 @@
         <v>3</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="D141" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5">
@@ -20212,7 +20212,7 @@
         <v>149.97</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20220,13 +20220,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5">
@@ -20240,7 +20240,7 @@
         <v>140</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20254,7 +20254,7 @@
         <v>260</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5">
@@ -20280,7 +20280,7 @@
         <v>259</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5">
@@ -20303,10 +20303,10 @@
         <v>5630</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5">
@@ -20332,7 +20332,7 @@
         <v>213</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5">
@@ -20358,7 +20358,7 @@
         <v>242</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5">
@@ -20381,10 +20381,10 @@
         <v>48</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5">
@@ -20407,10 +20407,10 @@
         <v>5</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5">
@@ -20436,7 +20436,7 @@
         <v>186</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5">
@@ -20459,10 +20459,10 @@
         <v>108</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5">
@@ -20485,10 +20485,10 @@
         <v>168</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5">
@@ -20514,7 +20514,7 @@
         <v>252</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5">
@@ -20537,10 +20537,10 @@
         <v>170</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5">
@@ -20563,10 +20563,10 @@
         <v>171</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5">
@@ -20589,10 +20589,10 @@
         <v>172</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5">
@@ -20612,13 +20612,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5">
@@ -20638,13 +20638,13 @@
         <v>9</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>240</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5">
@@ -20664,13 +20664,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>239</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5">
@@ -20690,13 +20690,13 @@
         <v>3</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5">
@@ -20710,7 +20710,7 @@
         <v>17.97</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20718,13 +20718,13 @@
         <v>3</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>283</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5">
@@ -20747,10 +20747,10 @@
         <v>97</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5">
@@ -20773,10 +20773,10 @@
         <v>62</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5">
@@ -20796,13 +20796,13 @@
         <v>1</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5">
@@ -20828,7 +20828,7 @@
         <v>276</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5">
@@ -20854,7 +20854,7 @@
         <v>225</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5">
@@ -20880,7 +20880,7 @@
         <v>228</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5">
@@ -20903,10 +20903,10 @@
         <v>115</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5">
@@ -20932,7 +20932,7 @@
         <v>201</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5">
@@ -20955,10 +20955,10 @@
         <v>117</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5">
@@ -20981,10 +20981,10 @@
         <v>145</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5">
@@ -21010,7 +21010,7 @@
         <v>263</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5">
@@ -21033,10 +21033,10 @@
         <v>114</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>285</v>
+        <v>463</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5">
@@ -21062,7 +21062,7 @@
         <v>278</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5">
@@ -21076,7 +21076,7 @@
         <v>1.31</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21090,7 +21090,7 @@
         <v>193</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5">
@@ -21113,10 +21113,10 @@
         <v>133</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13">
@@ -21139,10 +21139,10 @@
         <v>146</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12">
@@ -21168,7 +21168,7 @@
         <v>202</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5">
@@ -21194,7 +21194,7 @@
         <v>262</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5">
@@ -21217,10 +21217,10 @@
         <v>166</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5">
@@ -21246,7 +21246,7 @@
         <v>246</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5">
@@ -21270,7 +21270,7 @@
         <v>192</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5">
@@ -21290,13 +21290,13 @@
         <v>4</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5">
@@ -21322,7 +21322,7 @@
         <v>184</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21343,10 +21343,10 @@
         <v>167</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -21356,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21370,7 +21370,7 @@
         <v>215</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -21380,7 +21380,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21391,10 +21391,10 @@
         <v>179</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -21404,7 +21404,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21418,7 +21418,7 @@
         <v>261</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5">
@@ -21444,7 +21444,7 @@
         <v>250</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5">
@@ -21464,13 +21464,13 @@
         <v>2</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5">
@@ -21490,13 +21490,13 @@
         <v>2</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5">
@@ -21516,13 +21516,13 @@
         <v>2</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5">
@@ -21542,13 +21542,13 @@
         <v>2</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5">
@@ -21568,13 +21568,13 @@
         <v>2</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5">
@@ -21600,7 +21600,7 @@
         <v>253</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5">
@@ -21623,10 +21623,10 @@
         <v>17</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5">
@@ -21652,7 +21652,7 @@
         <v>224</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -21674,7 +21674,7 @@
         <v>265</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5">
@@ -21700,7 +21700,7 @@
         <v>90</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5">
@@ -21720,7 +21720,7 @@
         <v>43</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>212</v>
@@ -21740,7 +21740,7 @@
         <v>15</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>212</v>
@@ -21760,7 +21760,7 @@
         <v>6</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>212</v>
@@ -21780,10 +21780,10 @@
         <v>4</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -21800,10 +21800,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -21820,10 +21820,10 @@
         <v>16</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -21840,10 +21840,10 @@
         <v>47</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -21860,10 +21860,10 @@
         <v>37</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -21880,10 +21880,10 @@
         <v>2</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -21900,10 +21900,10 @@
         <v>4</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -21920,10 +21920,10 @@
         <v>8</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -21940,10 +21940,10 @@
         <v>3</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -21960,10 +21960,10 @@
         <v>4</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -21980,10 +21980,10 @@
         <v>4</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -22000,10 +22000,10 @@
         <v>69</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -22020,10 +22020,10 @@
         <v>12</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -22040,10 +22040,10 @@
         <v>48</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -22060,10 +22060,10 @@
         <v>22</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -22080,10 +22080,10 @@
         <v>2</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -22100,10 +22100,10 @@
         <v>8</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -22120,10 +22120,10 @@
         <v>4</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -22140,10 +22140,10 @@
         <v>10</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -22160,10 +22160,10 @@
         <v>4</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -22180,10 +22180,10 @@
         <v>22</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -22200,10 +22200,10 @@
         <v>6</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -22220,10 +22220,10 @@
         <v>43</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -22240,10 +22240,10 @@
         <v>3</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -22260,10 +22260,10 @@
         <v>8</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -22280,7 +22280,7 @@
         <v>8</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>243</v>
@@ -22397,7 +22397,7 @@
     <hyperlink ref="D180" r:id="rId21" xr:uid="{AC67EA49-B269-47E9-A649-9BC41BC2E2B1}"/>
     <hyperlink ref="D172" r:id="rId22" xr:uid="{FF4408CF-CC22-476E-BD50-281F67F672FE}"/>
     <hyperlink ref="D162" r:id="rId23" xr:uid="{37977E65-113F-4DE1-99EC-5B1F9DBEAB96}"/>
-    <hyperlink ref="D163" r:id="rId24" xr:uid="{3C578220-8F39-426B-92A4-D0A5F98F0EB1}"/>
+    <hyperlink ref="D163" r:id="rId24" display="FILASTRUDER" xr:uid="{3C578220-8F39-426B-92A4-D0A5F98F0EB1}"/>
     <hyperlink ref="D161" r:id="rId25" xr:uid="{637FB5F5-8AA4-410E-A04A-68585A90C25C}"/>
     <hyperlink ref="D159" r:id="rId26" xr:uid="{12C79020-6109-4C0C-9156-A8F3217718D2}"/>
     <hyperlink ref="D158" r:id="rId27" xr:uid="{7C35898B-47B7-4D8D-94B9-D34DF25A930A}"/>

--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA5F0BB-D4DA-4604-A27E-9A2FBDE71668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC14BD97-78FE-4B8F-9204-A9FE9E171356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="22800" windowHeight="14520" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
+    <workbookView xWindow="1650" yWindow="1125" windowWidth="25380" windowHeight="11385" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -17018,8 +17018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF5A505-CFB3-4021-9A3B-B7B5A3891831}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17048,7 +17048,7 @@
       </c>
       <c r="F1" s="19">
         <f>SUM(H3:H228)</f>
-        <v>2720.6750000000011</v>
+        <v>2843.065000000001</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>455</v>
@@ -17230,10 +17230,12 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>8.7799999999999994</v>
+      </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>406</v>
@@ -17256,10 +17258,12 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>12.25</v>
+      </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>407</v>
@@ -17304,9 +17308,12 @@
       <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>10.210000000000001</v>
+      </c>
       <c r="H11" s="7">
-        <v>10.210000000000001</v>
+        <f t="shared" si="0"/>
+        <v>20.420000000000002</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>408</v>
@@ -17329,9 +17336,12 @@
       <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>13.36</v>
+      </c>
       <c r="H12" s="7">
-        <v>13.36</v>
+        <f t="shared" si="0"/>
+        <v>26.72</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>454</v>
@@ -17354,9 +17364,12 @@
       <c r="F13" s="5">
         <v>2</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>17.670000000000002</v>
+      </c>
       <c r="H13" s="7">
-        <v>17.670000000000002</v>
+        <f t="shared" si="0"/>
+        <v>35.340000000000003</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>409</v>
@@ -17379,9 +17392,12 @@
       <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>17.670000000000002</v>
+      </c>
       <c r="H14" s="7">
-        <v>17.670000000000002</v>
+        <f t="shared" si="0"/>
+        <v>35.340000000000003</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>410</v>
@@ -17404,8 +17420,11 @@
       <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>13.78</v>
+      </c>
       <c r="H15" s="7">
+        <f t="shared" si="0"/>
         <v>13.78</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -17429,9 +17448,12 @@
       <c r="F16" s="5">
         <v>2</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>18.61</v>
+      </c>
       <c r="H16" s="7">
-        <v>18.61</v>
+        <f t="shared" si="0"/>
+        <v>37.22</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>412</v>
@@ -17454,9 +17476,12 @@
       <c r="F17" s="5">
         <v>2</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>17.87</v>
+      </c>
       <c r="H17" s="7">
-        <v>17.87</v>
+        <f t="shared" si="0"/>
+        <v>35.74</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>413</v>
@@ -17479,8 +17504,11 @@
       <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>19.32</v>
+      </c>
       <c r="H18" s="7">
+        <f t="shared" si="0"/>
         <v>19.32</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -20741,7 +20769,7 @@
     </row>
     <row r="162" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>97</v>
@@ -20754,14 +20782,14 @@
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G162" s="7">
         <v>1.99</v>
       </c>
       <c r="H162" s="7">
         <f t="shared" si="2"/>
-        <v>11.94</v>
+        <v>17.91</v>
       </c>
       <c r="I162" s="5"/>
     </row>

--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC14BD97-78FE-4B8F-9204-A9FE9E171356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD0F8B-3F52-4F25-8CC3-F0C2784B0C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1125" windowWidth="25380" windowHeight="11385" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
+    <workbookView xWindow="45" yWindow="1695" windowWidth="26385" windowHeight="11055" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -347,9 +347,6 @@
     <t>MULDEX-19-01</t>
   </si>
   <si>
-    <t>10MM X M5</t>
-  </si>
-  <si>
     <t>SILICONE</t>
   </si>
   <si>
@@ -1428,6 +1425,9 @@
   </si>
   <si>
     <t>DOWEL PIN, 5MM X 26MM</t>
+  </si>
+  <si>
+    <t>10MM X M4</t>
   </si>
 </sst>
 </file>
@@ -17018,8 +17018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF5A505-CFB3-4021-9A3B-B7B5A3891831}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17041,17 +17041,17 @@
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>452</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>453</v>
       </c>
       <c r="F1" s="19">
         <f>SUM(H3:H228)</f>
-        <v>2843.065000000001</v>
+        <v>2865.0350000000012</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="18"/>
@@ -17073,16 +17073,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17090,13 +17090,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
@@ -17119,10 +17119,10 @@
         <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
@@ -17145,10 +17145,10 @@
         <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
@@ -17171,10 +17171,10 @@
         <v>102</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -17188,7 +17188,7 @@
         <v>84</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17196,13 +17196,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -17218,13 +17218,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
@@ -17238,7 +17238,7 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17246,13 +17246,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
@@ -17266,7 +17266,7 @@
         <v>12.25</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17274,13 +17274,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -17296,13 +17296,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
@@ -17316,7 +17316,7 @@
         <v>20.420000000000002</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17324,13 +17324,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
@@ -17344,7 +17344,7 @@
         <v>26.72</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17352,13 +17352,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
@@ -17372,7 +17372,7 @@
         <v>35.340000000000003</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17380,13 +17380,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -17400,7 +17400,7 @@
         <v>35.340000000000003</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17408,13 +17408,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
@@ -17428,7 +17428,7 @@
         <v>13.78</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17436,13 +17436,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
@@ -17456,7 +17456,7 @@
         <v>37.22</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17464,13 +17464,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
@@ -17484,7 +17484,7 @@
         <v>35.74</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17492,13 +17492,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
@@ -17512,7 +17512,7 @@
         <v>19.32</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17520,13 +17520,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -17542,13 +17542,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -17564,13 +17564,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -17586,13 +17586,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -17608,13 +17608,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -17630,13 +17630,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -17652,13 +17652,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -17677,10 +17677,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -17699,10 +17699,10 @@
         <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -17721,10 +17721,10 @@
         <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -17743,10 +17743,10 @@
         <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -17765,10 +17765,10 @@
         <v>98</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -17787,10 +17787,10 @@
         <v>71</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -17809,10 +17809,10 @@
         <v>88</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -17831,10 +17831,10 @@
         <v>93</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="5"/>
@@ -17853,10 +17853,10 @@
         <v>100</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -17872,13 +17872,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -17894,13 +17894,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -17916,13 +17916,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -17941,10 +17941,10 @@
         <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -17963,10 +17963,10 @@
         <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -17985,10 +17985,10 @@
         <v>63</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -18007,10 +18007,10 @@
         <v>49</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -18029,10 +18029,10 @@
         <v>53</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -18051,10 +18051,10 @@
         <v>55</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -18073,10 +18073,10 @@
         <v>57</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -18095,10 +18095,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="5"/>
@@ -18114,13 +18114,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -18139,10 +18139,10 @@
         <v>16</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -18161,10 +18161,10 @@
         <v>29</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -18183,10 +18183,10 @@
         <v>36</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -18205,10 +18205,10 @@
         <v>39</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -18224,13 +18224,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -18249,10 +18249,10 @@
         <v>19</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -18268,13 +18268,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -18293,10 +18293,10 @@
         <v>7</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -18315,10 +18315,10 @@
         <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -18337,10 +18337,10 @@
         <v>40</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -18359,10 +18359,10 @@
         <v>42</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -18378,13 +18378,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>103</v>
+        <v>463</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -18400,13 +18400,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
@@ -18429,10 +18429,10 @@
         <v>99</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
@@ -18455,10 +18455,10 @@
         <v>13</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5">
@@ -18479,10 +18479,10 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5">
@@ -18496,7 +18496,7 @@
         <v>42.99</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -18504,13 +18504,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -18526,13 +18526,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -18548,13 +18548,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -18570,13 +18570,13 @@
         <v>2</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -18592,13 +18592,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -18614,13 +18614,13 @@
         <v>2</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -18636,13 +18636,13 @@
         <v>2</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -18658,13 +18658,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -18680,13 +18680,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -18702,13 +18702,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -18724,13 +18724,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -18746,13 +18746,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -18768,13 +18768,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -18790,13 +18790,13 @@
         <v>1</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -18812,13 +18812,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -18834,13 +18834,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -18856,13 +18856,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -18878,13 +18878,13 @@
         <v>1</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -18900,13 +18900,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -18925,10 +18925,10 @@
         <v>72</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -18947,10 +18947,10 @@
         <v>74</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -18969,10 +18969,10 @@
         <v>78</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -18991,10 +18991,10 @@
         <v>79</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -19013,10 +19013,10 @@
         <v>80</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -19035,10 +19035,10 @@
         <v>81</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -19057,10 +19057,10 @@
         <v>82</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -19079,10 +19079,10 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -19101,10 +19101,10 @@
         <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -19123,10 +19123,10 @@
         <v>92</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -19145,10 +19145,10 @@
         <v>94</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -19167,10 +19167,10 @@
         <v>95</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -19189,10 +19189,10 @@
         <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -19208,13 +19208,13 @@
         <v>2</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -19230,13 +19230,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -19252,13 +19252,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -19274,13 +19274,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -19296,13 +19296,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -19318,13 +19318,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -19340,13 +19340,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -19362,13 +19362,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -19384,13 +19384,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -19406,13 +19406,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -19428,13 +19428,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -19450,13 +19450,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -19472,13 +19472,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -19494,13 +19494,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -19519,10 +19519,10 @@
         <v>60</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -19541,10 +19541,10 @@
         <v>64</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -19563,10 +19563,10 @@
         <v>51</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -19585,10 +19585,10 @@
         <v>52</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -19607,10 +19607,10 @@
         <v>54</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -19629,10 +19629,10 @@
         <v>56</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -19651,10 +19651,10 @@
         <v>58</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -19673,10 +19673,10 @@
         <v>47</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -19692,13 +19692,13 @@
         <v>2</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -19714,13 +19714,13 @@
         <v>2</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -19739,10 +19739,10 @@
         <v>18</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -19761,10 +19761,10 @@
         <v>30</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -19783,10 +19783,10 @@
         <v>31</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -19805,10 +19805,10 @@
         <v>32</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -19827,10 +19827,10 @@
         <v>33</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -19849,10 +19849,10 @@
         <v>34</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -19871,10 +19871,10 @@
         <v>38</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -19890,13 +19890,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -19912,13 +19912,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -19934,13 +19934,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -19959,10 +19959,10 @@
         <v>20</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -19981,10 +19981,10 @@
         <v>21</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -20003,10 +20003,10 @@
         <v>22</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -20025,10 +20025,10 @@
         <v>23</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -20047,10 +20047,10 @@
         <v>9</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -20069,10 +20069,10 @@
         <v>10</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -20091,10 +20091,10 @@
         <v>11</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -20113,10 +20113,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -20135,10 +20135,10 @@
         <v>27</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -20157,10 +20157,10 @@
         <v>28</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -20179,10 +20179,10 @@
         <v>41</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -20201,10 +20201,10 @@
         <v>42</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -20220,13 +20220,13 @@
         <v>3</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="D141" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5">
@@ -20240,7 +20240,7 @@
         <v>149.97</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20248,13 +20248,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5">
@@ -20268,7 +20268,7 @@
         <v>140</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20279,10 +20279,10 @@
         <v>84</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5">
@@ -20305,10 +20305,10 @@
         <v>83</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5">
@@ -20331,10 +20331,10 @@
         <v>5630</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5">
@@ -20357,10 +20357,10 @@
         <v>35</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5">
@@ -20383,10 +20383,10 @@
         <v>61</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5">
@@ -20409,10 +20409,10 @@
         <v>48</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5">
@@ -20435,10 +20435,10 @@
         <v>5</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5">
@@ -20461,10 +20461,10 @@
         <v>8</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5">
@@ -20484,13 +20484,13 @@
         <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5">
@@ -20510,13 +20510,13 @@
         <v>1</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5">
@@ -20539,10 +20539,10 @@
         <v>76</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5">
@@ -20562,13 +20562,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5">
@@ -20588,13 +20588,13 @@
         <v>1</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5">
@@ -20614,13 +20614,13 @@
         <v>2</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5">
@@ -20640,13 +20640,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5">
@@ -20666,24 +20666,24 @@
         <v>9</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G158" s="7">
         <v>6.99</v>
       </c>
       <c r="H158" s="7">
         <f t="shared" si="2"/>
-        <v>62.910000000000004</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="I158" s="5"/>
     </row>
@@ -20692,24 +20692,24 @@
         <v>6</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G159" s="7">
         <v>7.49</v>
       </c>
       <c r="H159" s="7">
         <f t="shared" si="2"/>
-        <v>44.94</v>
+        <v>59.92</v>
       </c>
       <c r="I159" s="5"/>
     </row>
@@ -20718,13 +20718,13 @@
         <v>3</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5">
@@ -20738,7 +20738,7 @@
         <v>17.97</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20746,13 +20746,13 @@
         <v>3</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5">
@@ -20775,10 +20775,10 @@
         <v>97</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5">
@@ -20801,10 +20801,10 @@
         <v>62</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5">
@@ -20824,13 +20824,13 @@
         <v>1</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5">
@@ -20850,13 +20850,13 @@
         <v>1</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5">
@@ -20879,10 +20879,10 @@
         <v>46</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5">
@@ -20905,10 +20905,10 @@
         <v>50</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5">
@@ -20928,13 +20928,13 @@
         <v>3</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5">
@@ -20957,10 +20957,10 @@
         <v>24</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5">
@@ -20980,13 +20980,13 @@
         <v>3</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5">
@@ -21006,13 +21006,13 @@
         <v>5</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5">
@@ -21035,10 +21035,10 @@
         <v>87</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5">
@@ -21058,13 +21058,13 @@
         <v>6</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5">
@@ -21084,13 +21084,13 @@
         <v>4</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5">
@@ -21104,7 +21104,7 @@
         <v>1.31</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21115,10 +21115,10 @@
         <v>15</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5">
@@ -21138,13 +21138,13 @@
         <v>2</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13">
@@ -21164,13 +21164,13 @@
         <v>5</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12">
@@ -21193,10 +21193,10 @@
         <v>25</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5">
@@ -21219,10 +21219,10 @@
         <v>86</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5">
@@ -21242,13 +21242,13 @@
         <v>1</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5">
@@ -21271,10 +21271,10 @@
         <v>67</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5">
@@ -21295,10 +21295,10 @@
         <v>14</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5">
@@ -21318,13 +21318,13 @@
         <v>4</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5">
@@ -21347,10 +21347,10 @@
         <v>6</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -21360,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21368,13 +21368,13 @@
         <v>1</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21395,10 +21395,10 @@
         <v>37</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -21408,7 +21408,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21416,13 +21416,13 @@
         <v>1</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -21432,7 +21432,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21443,10 +21443,10 @@
         <v>85</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5">
@@ -21469,10 +21469,10 @@
         <v>73</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5">
@@ -21492,13 +21492,13 @@
         <v>2</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5">
@@ -21518,13 +21518,13 @@
         <v>2</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5">
@@ -21544,13 +21544,13 @@
         <v>2</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5">
@@ -21570,13 +21570,13 @@
         <v>2</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5">
@@ -21596,13 +21596,13 @@
         <v>2</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5">
@@ -21625,10 +21625,10 @@
         <v>77</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5">
@@ -21651,10 +21651,10 @@
         <v>17</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5">
@@ -21677,10 +21677,10 @@
         <v>45</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -21699,10 +21699,10 @@
         <v>90</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5">
@@ -21728,7 +21728,7 @@
         <v>90</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5">
@@ -21748,10 +21748,10 @@
         <v>43</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -21768,10 +21768,10 @@
         <v>15</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -21788,10 +21788,10 @@
         <v>6</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -21808,10 +21808,10 @@
         <v>4</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -21828,10 +21828,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -21848,10 +21848,10 @@
         <v>16</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -21868,10 +21868,10 @@
         <v>47</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -21888,10 +21888,10 @@
         <v>37</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -21908,10 +21908,10 @@
         <v>2</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -21928,10 +21928,10 @@
         <v>4</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -21948,10 +21948,10 @@
         <v>8</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -21968,10 +21968,10 @@
         <v>3</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -21988,10 +21988,10 @@
         <v>4</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -22008,10 +22008,10 @@
         <v>4</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -22028,10 +22028,10 @@
         <v>69</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -22048,10 +22048,10 @@
         <v>12</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -22068,10 +22068,10 @@
         <v>48</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -22088,10 +22088,10 @@
         <v>22</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -22108,10 +22108,10 @@
         <v>2</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -22128,10 +22128,10 @@
         <v>8</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -22148,10 +22148,10 @@
         <v>4</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -22168,10 +22168,10 @@
         <v>10</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -22188,10 +22188,10 @@
         <v>4</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -22208,10 +22208,10 @@
         <v>22</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -22228,10 +22228,10 @@
         <v>6</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -22248,10 +22248,10 @@
         <v>43</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -22268,10 +22268,10 @@
         <v>3</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -22288,10 +22288,10 @@
         <v>8</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -22308,10 +22308,10 @@
         <v>8</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>

--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD0F8B-3F52-4F25-8CC3-F0C2784B0C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7B2B4-04BF-4C74-8D99-6453E5757E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="1695" windowWidth="26385" windowHeight="11055" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="465">
   <si>
     <t>QTY</t>
   </si>
@@ -290,9 +290,6 @@
     <t>1M LG</t>
   </si>
   <si>
-    <t>13MM  LG</t>
-  </si>
-  <si>
     <t>.4MM</t>
   </si>
   <si>
@@ -1428,6 +1425,12 @@
   </si>
   <si>
     <t>10MM X M4</t>
+  </si>
+  <si>
+    <t>40MM  LG</t>
+  </si>
+  <si>
+    <t>Estimated</t>
   </si>
 </sst>
 </file>
@@ -17018,8 +17021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF5A505-CFB3-4021-9A3B-B7B5A3891831}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17041,17 +17044,17 @@
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>452</v>
       </c>
       <c r="F1" s="19">
         <f>SUM(H3:H228)</f>
         <v>2865.0350000000012</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="18"/>
@@ -17073,16 +17076,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>415</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17090,13 +17093,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
@@ -17119,10 +17122,10 @@
         <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
@@ -17145,10 +17148,10 @@
         <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
@@ -17168,13 +17171,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -17188,7 +17191,7 @@
         <v>84</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17196,13 +17199,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -17218,13 +17221,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
@@ -17238,7 +17241,7 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17246,13 +17249,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
@@ -17266,7 +17269,7 @@
         <v>12.25</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17274,13 +17277,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -17296,13 +17299,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
@@ -17316,7 +17319,7 @@
         <v>20.420000000000002</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17324,13 +17327,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
@@ -17344,7 +17347,7 @@
         <v>26.72</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17352,13 +17355,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
@@ -17372,7 +17375,7 @@
         <v>35.340000000000003</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17380,13 +17383,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -17400,7 +17403,7 @@
         <v>35.340000000000003</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17408,13 +17411,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
@@ -17428,7 +17431,7 @@
         <v>13.78</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17436,13 +17439,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
@@ -17456,7 +17459,7 @@
         <v>37.22</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17464,13 +17467,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
@@ -17484,7 +17487,7 @@
         <v>35.74</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17492,13 +17495,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
@@ -17512,7 +17515,7 @@
         <v>19.32</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -17520,13 +17523,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -17542,13 +17545,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -17564,13 +17567,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -17586,13 +17589,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -17608,13 +17611,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -17630,13 +17633,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -17652,13 +17655,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -17677,10 +17680,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -17699,10 +17702,10 @@
         <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -17721,10 +17724,10 @@
         <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -17743,10 +17746,10 @@
         <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -17762,13 +17765,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -17787,10 +17790,10 @@
         <v>71</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -17806,13 +17809,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -17828,13 +17831,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="5"/>
@@ -17850,13 +17853,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -17872,13 +17875,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -17894,13 +17897,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -17916,13 +17919,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -17938,13 +17941,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -17963,10 +17966,10 @@
         <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -17985,10 +17988,10 @@
         <v>63</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -18007,10 +18010,10 @@
         <v>49</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -18029,10 +18032,10 @@
         <v>53</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -18051,10 +18054,10 @@
         <v>55</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -18073,10 +18076,10 @@
         <v>57</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -18095,10 +18098,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="5"/>
@@ -18114,13 +18117,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -18139,10 +18142,10 @@
         <v>16</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -18161,10 +18164,10 @@
         <v>29</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -18183,10 +18186,10 @@
         <v>36</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -18205,10 +18208,10 @@
         <v>39</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -18224,13 +18227,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -18249,10 +18252,10 @@
         <v>19</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -18268,13 +18271,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -18293,10 +18296,10 @@
         <v>7</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -18315,10 +18318,10 @@
         <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -18337,10 +18340,10 @@
         <v>40</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -18359,10 +18362,10 @@
         <v>42</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -18378,13 +18381,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -18400,13 +18403,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
@@ -18426,13 +18429,13 @@
         <v>51</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
@@ -18455,10 +18458,10 @@
         <v>13</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5">
@@ -18479,10 +18482,10 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5">
@@ -18496,7 +18499,7 @@
         <v>42.99</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -18504,13 +18507,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -18526,13 +18529,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -18548,13 +18551,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -18570,13 +18573,13 @@
         <v>2</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -18592,13 +18595,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -18614,13 +18617,13 @@
         <v>2</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -18636,13 +18639,13 @@
         <v>2</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -18658,13 +18661,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -18680,13 +18683,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -18702,13 +18705,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -18724,13 +18727,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -18746,13 +18749,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -18768,13 +18771,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -18790,13 +18793,13 @@
         <v>1</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -18812,13 +18815,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -18834,13 +18837,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -18856,13 +18859,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -18878,13 +18881,13 @@
         <v>1</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -18900,13 +18903,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -18925,10 +18928,10 @@
         <v>72</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -18947,10 +18950,10 @@
         <v>74</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -18969,10 +18972,10 @@
         <v>78</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -18991,10 +18994,10 @@
         <v>79</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -19013,10 +19016,10 @@
         <v>80</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -19035,10 +19038,10 @@
         <v>81</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -19057,10 +19060,10 @@
         <v>82</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -19076,13 +19079,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -19098,13 +19101,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -19120,13 +19123,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -19142,13 +19145,13 @@
         <v>2</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -19164,13 +19167,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -19186,13 +19189,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -19208,13 +19211,13 @@
         <v>2</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -19230,13 +19233,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -19252,13 +19255,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -19274,13 +19277,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -19296,13 +19299,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -19318,13 +19321,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -19340,13 +19343,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -19362,13 +19365,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -19384,13 +19387,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -19406,13 +19409,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -19428,13 +19431,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -19450,13 +19453,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -19472,13 +19475,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -19494,13 +19497,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -19519,10 +19522,10 @@
         <v>60</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -19541,10 +19544,10 @@
         <v>64</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -19563,10 +19566,10 @@
         <v>51</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -19585,10 +19588,10 @@
         <v>52</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -19607,10 +19610,10 @@
         <v>54</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -19629,10 +19632,10 @@
         <v>56</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -19651,10 +19654,10 @@
         <v>58</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -19673,10 +19676,10 @@
         <v>47</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -19692,13 +19695,13 @@
         <v>2</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -19714,13 +19717,13 @@
         <v>2</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -19739,10 +19742,10 @@
         <v>18</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -19761,10 +19764,10 @@
         <v>30</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -19783,10 +19786,10 @@
         <v>31</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -19805,10 +19808,10 @@
         <v>32</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -19827,10 +19830,10 @@
         <v>33</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -19849,10 +19852,10 @@
         <v>34</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -19871,10 +19874,10 @@
         <v>38</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -19890,13 +19893,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -19912,13 +19915,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -19934,13 +19937,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -19959,10 +19962,10 @@
         <v>20</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -19981,10 +19984,10 @@
         <v>21</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -20003,10 +20006,10 @@
         <v>22</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -20025,10 +20028,10 @@
         <v>23</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -20047,10 +20050,10 @@
         <v>9</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -20069,10 +20072,10 @@
         <v>10</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -20091,10 +20094,10 @@
         <v>11</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -20113,10 +20116,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -20135,10 +20138,10 @@
         <v>27</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -20157,10 +20160,10 @@
         <v>28</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -20179,10 +20182,10 @@
         <v>41</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -20201,10 +20204,10 @@
         <v>42</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -20220,13 +20223,13 @@
         <v>3</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>397</v>
-      </c>
       <c r="D141" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5">
@@ -20240,7 +20243,7 @@
         <v>149.97</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20248,13 +20251,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5">
@@ -20268,7 +20271,7 @@
         <v>140</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20276,13 +20279,13 @@
         <v>2</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>84</v>
+        <v>463</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5">
@@ -20295,7 +20298,9 @@
         <f t="shared" si="2"/>
         <v>11.99</v>
       </c>
-      <c r="I143" s="5"/>
+      <c r="I143" s="5" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
@@ -20305,10 +20310,10 @@
         <v>83</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5">
@@ -20331,10 +20336,10 @@
         <v>5630</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5">
@@ -20357,10 +20362,10 @@
         <v>35</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5">
@@ -20383,10 +20388,10 @@
         <v>61</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5">
@@ -20409,10 +20414,10 @@
         <v>48</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5">
@@ -20435,10 +20440,10 @@
         <v>5</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5">
@@ -20461,10 +20466,10 @@
         <v>8</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5">
@@ -20484,13 +20489,13 @@
         <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5">
@@ -20510,13 +20515,13 @@
         <v>1</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5">
@@ -20539,10 +20544,10 @@
         <v>76</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5">
@@ -20562,13 +20567,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5">
@@ -20588,13 +20593,13 @@
         <v>1</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5">
@@ -20614,13 +20619,13 @@
         <v>2</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5">
@@ -20640,13 +20645,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5">
@@ -20666,13 +20671,13 @@
         <v>9</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5">
@@ -20692,13 +20697,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5">
@@ -20718,13 +20723,13 @@
         <v>3</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5">
@@ -20738,7 +20743,7 @@
         <v>17.97</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -20746,13 +20751,13 @@
         <v>3</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5">
@@ -20772,13 +20777,13 @@
         <v>9</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5">
@@ -20801,10 +20806,10 @@
         <v>62</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5">
@@ -20824,13 +20829,13 @@
         <v>1</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5">
@@ -20850,13 +20855,13 @@
         <v>1</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5">
@@ -20879,10 +20884,10 @@
         <v>46</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5">
@@ -20905,10 +20910,10 @@
         <v>50</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5">
@@ -20928,13 +20933,13 @@
         <v>3</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5">
@@ -20957,10 +20962,10 @@
         <v>24</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5">
@@ -20980,13 +20985,13 @@
         <v>3</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5">
@@ -21006,13 +21011,13 @@
         <v>5</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5">
@@ -21032,13 +21037,13 @@
         <v>6</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5">
@@ -21058,13 +21063,13 @@
         <v>6</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5">
@@ -21084,13 +21089,13 @@
         <v>4</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5">
@@ -21104,7 +21109,7 @@
         <v>1.31</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21115,10 +21120,10 @@
         <v>15</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5">
@@ -21138,13 +21143,13 @@
         <v>2</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13">
@@ -21164,13 +21169,13 @@
         <v>5</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12">
@@ -21193,10 +21198,10 @@
         <v>25</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5">
@@ -21216,13 +21221,13 @@
         <v>17</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5">
@@ -21242,13 +21247,13 @@
         <v>1</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5">
@@ -21271,10 +21276,10 @@
         <v>67</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5">
@@ -21295,10 +21300,10 @@
         <v>14</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5">
@@ -21318,13 +21323,13 @@
         <v>4</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5">
@@ -21347,10 +21352,10 @@
         <v>6</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -21360,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21368,13 +21373,13 @@
         <v>1</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -21384,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21395,10 +21400,10 @@
         <v>37</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -21408,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21416,13 +21421,13 @@
         <v>1</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -21432,7 +21437,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -21440,13 +21445,13 @@
         <v>2</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5">
@@ -21469,10 +21474,10 @@
         <v>73</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5">
@@ -21492,13 +21497,13 @@
         <v>2</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5">
@@ -21518,13 +21523,13 @@
         <v>2</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5">
@@ -21544,13 +21549,13 @@
         <v>2</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5">
@@ -21570,13 +21575,13 @@
         <v>2</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5">
@@ -21596,13 +21601,13 @@
         <v>2</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5">
@@ -21625,10 +21630,10 @@
         <v>77</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5">
@@ -21651,10 +21656,10 @@
         <v>17</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5">
@@ -21677,10 +21682,10 @@
         <v>45</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -21696,13 +21701,13 @@
         <v>1</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5">
@@ -21725,10 +21730,10 @@
         <v>75</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5">
@@ -21748,10 +21753,10 @@
         <v>43</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -21768,10 +21773,10 @@
         <v>15</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -21788,10 +21793,10 @@
         <v>6</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -21808,10 +21813,10 @@
         <v>4</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -21828,10 +21833,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -21848,10 +21853,10 @@
         <v>16</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -21868,10 +21873,10 @@
         <v>47</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -21888,10 +21893,10 @@
         <v>37</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -21908,10 +21913,10 @@
         <v>2</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -21928,10 +21933,10 @@
         <v>4</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -21948,10 +21953,10 @@
         <v>8</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -21968,10 +21973,10 @@
         <v>3</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -21988,10 +21993,10 @@
         <v>4</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -22008,10 +22013,10 @@
         <v>4</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -22028,10 +22033,10 @@
         <v>69</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -22048,10 +22053,10 @@
         <v>12</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -22068,10 +22073,10 @@
         <v>48</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -22088,10 +22093,10 @@
         <v>22</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -22108,10 +22113,10 @@
         <v>2</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -22128,10 +22133,10 @@
         <v>8</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -22148,10 +22153,10 @@
         <v>4</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -22168,10 +22173,10 @@
         <v>10</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -22188,10 +22193,10 @@
         <v>4</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -22208,10 +22213,10 @@
         <v>22</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -22228,10 +22233,10 @@
         <v>6</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -22248,10 +22253,10 @@
         <v>43</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -22268,10 +22273,10 @@
         <v>3</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -22288,10 +22293,10 @@
         <v>8</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -22308,10 +22313,10 @@
         <v>8</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>

--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7B2B4-04BF-4C74-8D99-6453E5757E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6DF0D6-9084-41E0-9602-B31D27F35BB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="466">
   <si>
     <t>QTY</t>
   </si>
@@ -1431,6 +1431,9 @@
   </si>
   <si>
     <t>Estimated</t>
+  </si>
+  <si>
+    <t>3DFUSED</t>
   </si>
 </sst>
 </file>
@@ -17021,8 +17024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF5A505-CFB3-4021-9A3B-B7B5A3891831}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17051,7 +17054,7 @@
       </c>
       <c r="F1" s="19">
         <f>SUM(H3:H228)</f>
-        <v>2865.0350000000012</v>
+        <v>2835.065000000001</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>453</v>
@@ -17177,7 +17180,7 @@
         <v>272</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>351</v>
+        <v>465</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -21333,14 +21336,14 @@
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G183" s="7">
         <v>9.99</v>
       </c>
       <c r="H183" s="7">
         <f t="shared" si="2"/>
-        <v>39.96</v>
+        <v>9.99</v>
       </c>
       <c r="I183" s="5"/>
     </row>
@@ -22411,7 +22414,7 @@
     <hyperlink ref="D145" r:id="rId2" xr:uid="{BFC10C57-23AA-40DC-9868-265C0E01AB00}"/>
     <hyperlink ref="D61" r:id="rId3" xr:uid="{2013A8C9-837B-4834-8E7C-703737F0F43D}"/>
     <hyperlink ref="D60" r:id="rId4" xr:uid="{6C1E4D21-A1AF-4664-805E-9EB49AEE26E4}"/>
-    <hyperlink ref="D6" r:id="rId5" display="3DFUSED" xr:uid="{C6567402-A6A5-4BB9-A0EF-279C3459A544}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{C6567402-A6A5-4BB9-A0EF-279C3459A544}"/>
     <hyperlink ref="D183" r:id="rId6" display="N/A" xr:uid="{C575B612-8CD6-4D8B-A818-472E27A0DF5F}"/>
     <hyperlink ref="D195" r:id="rId7" display="SoundOriginal " xr:uid="{DC765517-5999-43CA-B056-8D4BE4F0D59C}"/>
     <hyperlink ref="D198" r:id="rId8" xr:uid="{75DD3A4D-0E81-4EB6-85A8-ED4E392D5A76}"/>

--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA6AF56-DA60-4DD8-A03B-273C27CE14DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61923615-7338-447A-82B6-B7E5BAFFB4F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="2460" windowWidth="25755" windowHeight="13305" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
+    <workbookView xWindow="1155" yWindow="2295" windowWidth="25755" windowHeight="13305" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1171,6 +1171,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11844,8 +11847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF5A505-CFB3-4021-9A3B-B7B5A3891831}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11932,7 +11935,7 @@
         <v>135</v>
       </c>
       <c r="H3" s="6">
-        <f>G3*F3</f>
+        <f t="shared" ref="H3:H34" si="0">G3*F3</f>
         <v>135</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -11956,7 +11959,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
-        <f>G4*F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="4"/>
@@ -11978,7 +11981,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6">
-        <f>G5*F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="4"/>
@@ -12000,7 +12003,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
-        <f>G6*F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="4"/>
@@ -12022,7 +12025,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="4"/>
@@ -12044,7 +12047,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
-        <f>G8*F8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="4"/>
@@ -12066,7 +12069,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
-        <f>G9*F9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="4"/>
@@ -12088,7 +12091,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <f>G10*F10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="4"/>
@@ -12110,7 +12113,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <f>G11*F11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="4"/>
@@ -12132,7 +12135,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="4"/>
@@ -12154,7 +12157,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
@@ -12176,7 +12179,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
-        <f>G14*F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="4"/>
@@ -12198,7 +12201,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <f>G15*F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="4"/>
@@ -12220,7 +12223,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6">
-        <f>G16*F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="4"/>
@@ -12242,7 +12245,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
-        <f>G17*F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="4"/>
@@ -12264,7 +12267,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <f>G18*F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="4"/>
@@ -12286,7 +12289,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6">
-        <f>G19*F19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="4"/>
@@ -12308,7 +12311,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <f>G20*F20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="4"/>
@@ -12330,7 +12333,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
-        <f>G21*F21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="4"/>
@@ -12352,7 +12355,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <f>G22*F22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="4"/>
@@ -12374,7 +12377,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <f>G23*F23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="4"/>
@@ -12396,7 +12399,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <f>G24*F24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="4"/>
@@ -12418,7 +12421,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6">
-        <f>G25*F25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="4"/>
@@ -12440,7 +12443,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6">
-        <f>G26*F26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="4"/>
@@ -12462,7 +12465,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6">
-        <f>G27*F27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="4"/>
@@ -12484,7 +12487,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6">
-        <f>G28*F28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="4"/>
@@ -12506,7 +12509,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <f>G29*F29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="4"/>
@@ -12528,7 +12531,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
-        <f>G30*F30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="4"/>
@@ -12550,7 +12553,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <f>G31*F31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="4"/>
@@ -12572,7 +12575,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
-        <f>G32*F32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="4"/>
@@ -12594,7 +12597,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6">
-        <f>G33*F33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="4"/>
@@ -12616,7 +12619,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6">
-        <f>G34*F34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="4"/>
@@ -12638,7 +12641,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
-        <f>G35*F35</f>
+        <f t="shared" ref="H35:H66" si="1">G35*F35</f>
         <v>0</v>
       </c>
       <c r="I35" s="4"/>
@@ -12660,7 +12663,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6">
-        <f>G36*F36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="4"/>
@@ -12682,7 +12685,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
-        <f>G37*F37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="4"/>
@@ -12704,7 +12707,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6">
-        <f>G38*F38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="4"/>
@@ -12726,7 +12729,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
-        <f>G39*F39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="4"/>
@@ -12748,7 +12751,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6">
-        <f>G40*F40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="4"/>
@@ -12770,7 +12773,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
-        <f>G41*F41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="4"/>
@@ -12792,7 +12795,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6">
-        <f>G42*F42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="4"/>
@@ -12814,7 +12817,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6">
-        <f>G43*F43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="4"/>
@@ -12840,7 +12843,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="H44" s="6">
-        <f>G44*F44</f>
+        <f t="shared" si="1"/>
         <v>2.1800000000000002</v>
       </c>
       <c r="I44" s="4"/>
@@ -12866,7 +12869,7 @@
         <v>5.99</v>
       </c>
       <c r="H45" s="6">
-        <f>G45*F45</f>
+        <f t="shared" si="1"/>
         <v>5.99</v>
       </c>
       <c r="I45" s="8" t="s">
@@ -12894,7 +12897,7 @@
         <v>7.99</v>
       </c>
       <c r="H46" s="6">
-        <f>G46*F46</f>
+        <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
       <c r="I46" s="4"/>
@@ -12920,7 +12923,7 @@
         <v>7.99</v>
       </c>
       <c r="H47" s="6">
-        <f>G47*F47</f>
+        <f t="shared" si="1"/>
         <v>15.98</v>
       </c>
       <c r="I47" s="4"/>
@@ -12944,7 +12947,7 @@
         <v>42.99</v>
       </c>
       <c r="H48" s="6">
-        <f>G48*F48</f>
+        <f t="shared" si="1"/>
         <v>42.99</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -12972,7 +12975,7 @@
         <v>49.99</v>
       </c>
       <c r="H49" s="6">
-        <f>G49*F49</f>
+        <f t="shared" si="1"/>
         <v>149.97</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -13000,7 +13003,7 @@
         <v>140</v>
       </c>
       <c r="H50" s="6">
-        <f>G50*F50</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="I50" s="8" t="s">
@@ -13028,7 +13031,7 @@
         <v>11.99</v>
       </c>
       <c r="H51" s="6">
-        <f>G51*F51</f>
+        <f t="shared" si="1"/>
         <v>23.98</v>
       </c>
       <c r="I51" s="4"/>
@@ -13054,7 +13057,7 @@
         <v>11.99</v>
       </c>
       <c r="H52" s="6">
-        <f>G52*F52</f>
+        <f t="shared" si="1"/>
         <v>11.99</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -13082,7 +13085,7 @@
         <v>3.81</v>
       </c>
       <c r="H53" s="6">
-        <f>G53*F53</f>
+        <f t="shared" si="1"/>
         <v>7.62</v>
       </c>
       <c r="I53" s="4"/>
@@ -13108,7 +13111,7 @@
         <v>2.99</v>
       </c>
       <c r="H54" s="6">
-        <f>G54*F54</f>
+        <f t="shared" si="1"/>
         <v>5.98</v>
       </c>
       <c r="I54" s="4"/>
@@ -13134,7 +13137,7 @@
         <v>4.99</v>
       </c>
       <c r="H55" s="6">
-        <f>G55*F55</f>
+        <f t="shared" si="1"/>
         <v>19.96</v>
       </c>
       <c r="I55" s="4"/>
@@ -13160,7 +13163,7 @@
         <v>6.99</v>
       </c>
       <c r="H56" s="6">
-        <f>G56*F56</f>
+        <f t="shared" si="1"/>
         <v>69.900000000000006</v>
       </c>
       <c r="I56" s="4"/>
@@ -13186,7 +13189,7 @@
         <v>7.49</v>
       </c>
       <c r="H57" s="6">
-        <f>G57*F57</f>
+        <f t="shared" si="1"/>
         <v>59.92</v>
       </c>
       <c r="I57" s="4"/>
@@ -13212,10 +13215,10 @@
         <v>5.99</v>
       </c>
       <c r="H58" s="6">
-        <f>G58*F58</f>
+        <f t="shared" si="1"/>
         <v>17.97</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="I58" s="25" t="s">
         <v>216</v>
       </c>
     </row>
@@ -13240,7 +13243,7 @@
         <v>6.99</v>
       </c>
       <c r="H59" s="6">
-        <f>G59*F59</f>
+        <f t="shared" si="1"/>
         <v>20.97</v>
       </c>
       <c r="I59" s="4"/>
@@ -13266,7 +13269,7 @@
         <v>9.99</v>
       </c>
       <c r="H60" s="6">
-        <f>G60*F60</f>
+        <f t="shared" si="1"/>
         <v>9.99</v>
       </c>
       <c r="I60" s="4"/>
@@ -13292,7 +13295,7 @@
         <v>12.77</v>
       </c>
       <c r="H61" s="6">
-        <f>G61*F61</f>
+        <f t="shared" si="1"/>
         <v>25.54</v>
       </c>
       <c r="I61" s="4"/>
@@ -13318,7 +13321,7 @@
         <v>22.47</v>
       </c>
       <c r="H62" s="6">
-        <f>G62*F62</f>
+        <f t="shared" si="1"/>
         <v>44.94</v>
       </c>
       <c r="I62" s="4"/>
@@ -13344,7 +13347,7 @@
         <v>99.99</v>
       </c>
       <c r="H63" s="6">
-        <f>G63*F63</f>
+        <f t="shared" si="1"/>
         <v>99.99</v>
       </c>
       <c r="I63" s="4"/>
@@ -13370,7 +13373,7 @@
         <v>15.47</v>
       </c>
       <c r="H64" s="6">
-        <f>G64*F64</f>
+        <f t="shared" si="1"/>
         <v>15.47</v>
       </c>
       <c r="I64" s="12"/>
@@ -13396,7 +13399,7 @@
         <v>12.74</v>
       </c>
       <c r="H65" s="6">
-        <f>G65*F65</f>
+        <f t="shared" si="1"/>
         <v>38.22</v>
       </c>
       <c r="I65" s="4"/>
@@ -13422,7 +13425,7 @@
         <v>21.99</v>
       </c>
       <c r="H66" s="6">
-        <f>G66*F66</f>
+        <f t="shared" si="1"/>
         <v>21.99</v>
       </c>
       <c r="I66" s="4"/>
@@ -13448,7 +13451,7 @@
         <v>34.99</v>
       </c>
       <c r="H67" s="6">
-        <f>G67*F67</f>
+        <f t="shared" ref="H67:H98" si="2">G67*F67</f>
         <v>34.99</v>
       </c>
       <c r="I67" s="4"/>
@@ -13474,7 +13477,7 @@
         <v>79.989999999999995</v>
       </c>
       <c r="H68" s="6">
-        <f>G68*F68</f>
+        <f t="shared" si="2"/>
         <v>79.989999999999995</v>
       </c>
       <c r="I68" s="4"/>
@@ -13500,7 +13503,7 @@
         <v>79.989999999999995</v>
       </c>
       <c r="H69" s="6">
-        <f>G69*F69</f>
+        <f t="shared" si="2"/>
         <v>79.989999999999995</v>
       </c>
       <c r="I69" s="4"/>
@@ -13526,7 +13529,7 @@
         <v>169.99</v>
       </c>
       <c r="H70" s="6">
-        <f>G70*F70</f>
+        <f t="shared" si="2"/>
         <v>169.99</v>
       </c>
       <c r="I70" s="4"/>
@@ -13552,7 +13555,7 @@
         <v>74.989999999999995</v>
       </c>
       <c r="H71" s="6">
-        <f>G71*F71</f>
+        <f t="shared" si="2"/>
         <v>74.989999999999995</v>
       </c>
       <c r="I71" s="4"/>
@@ -13578,7 +13581,7 @@
         <v>54.99</v>
       </c>
       <c r="H72" s="6">
-        <f>G72*F72</f>
+        <f t="shared" si="2"/>
         <v>109.98</v>
       </c>
       <c r="I72" s="4" t="s">
@@ -13606,7 +13609,7 @@
         <v>1.99</v>
       </c>
       <c r="H73" s="6">
-        <f>G73*F73</f>
+        <f t="shared" si="2"/>
         <v>17.91</v>
       </c>
       <c r="I73" s="4"/>
@@ -13632,7 +13635,7 @@
         <v>1.99</v>
       </c>
       <c r="H74" s="6">
-        <f>G74*F74</f>
+        <f t="shared" si="2"/>
         <v>11.94</v>
       </c>
       <c r="I74" s="4"/>
@@ -13658,7 +13661,7 @@
         <v>20</v>
       </c>
       <c r="H75" s="6">
-        <f>G75*F75</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I75" s="4" t="s">
@@ -13686,7 +13689,7 @@
         <v>25</v>
       </c>
       <c r="H76" s="6">
-        <f>G76*F76</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I76" s="4" t="s">
@@ -13714,7 +13717,7 @@
         <v>35</v>
       </c>
       <c r="H77" s="6">
-        <f>G77*F77</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -13742,7 +13745,7 @@
         <v>2.99</v>
       </c>
       <c r="H78" s="6">
-        <f>G78*F78</f>
+        <f t="shared" si="2"/>
         <v>2.99</v>
       </c>
       <c r="I78" s="4"/>
@@ -13768,7 +13771,7 @@
         <v>86.5</v>
       </c>
       <c r="H79" s="6">
-        <f>G79*F79</f>
+        <f t="shared" si="2"/>
         <v>86.5</v>
       </c>
       <c r="I79" s="4"/>
@@ -13790,7 +13793,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6">
-        <f>G80*F80</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I80" s="4" t="s">
@@ -13818,7 +13821,7 @@
         <v>16</v>
       </c>
       <c r="H81" s="6">
-        <f>G81*F81</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="I81" s="4" t="s">
@@ -13846,7 +13849,7 @@
         <v>16</v>
       </c>
       <c r="H82" s="6">
-        <f>G82*F82</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="I82" s="4" t="s">
@@ -13874,7 +13877,7 @@
         <v>40</v>
       </c>
       <c r="H83" s="6">
-        <f>G83*F83</f>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="I83" s="4" t="s">
@@ -13900,7 +13903,7 @@
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6">
-        <f>G84*F84</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I84" s="4" t="s">
@@ -13926,7 +13929,7 @@
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <f>G85*F85</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I85" s="4" t="s">
@@ -14000,7 +14003,7 @@
         <v>42</v>
       </c>
       <c r="H88" s="6">
-        <f>G88*F88</f>
+        <f t="shared" ref="H88:H119" si="3">G88*F88</f>
         <v>42</v>
       </c>
       <c r="I88" s="4"/>
@@ -14026,7 +14029,7 @@
         <v>7</v>
       </c>
       <c r="H89" s="6">
-        <f>G89*F89</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I89" s="4" t="s">
@@ -14050,7 +14053,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6">
-        <f>G90*F90</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I90" s="4" t="s">
@@ -14074,7 +14077,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6">
-        <f>G91*F91</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I91" s="4" t="s">
@@ -14098,7 +14101,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6">
-        <f>G92*F92</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I92" s="4" t="s">
@@ -14122,7 +14125,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6">
-        <f>G93*F93</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I93" s="4" t="s">
@@ -14146,7 +14149,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6">
-        <f>G94*F94</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I94" s="4" t="s">
@@ -14170,7 +14173,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6">
-        <f>G95*F95</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I95" s="4" t="s">
@@ -14194,7 +14197,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6">
-        <f>G96*F96</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I96" s="4" t="s">
@@ -14218,7 +14221,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6">
-        <f>G97*F97</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I97" s="4" t="s">
@@ -14242,7 +14245,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6">
-        <f>G98*F98</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I98" s="4" t="s">
@@ -14266,7 +14269,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6">
-        <f>G99*F99</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I99" s="4" t="s">
@@ -14290,7 +14293,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6">
-        <f>G100*F100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I100" s="4" t="s">
@@ -14314,7 +14317,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6">
-        <f>G101*F101</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I101" s="4" t="s">
@@ -14338,7 +14341,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6">
-        <f>G102*F102</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I102" s="4" t="s">
@@ -14362,7 +14365,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6">
-        <f>G103*F103</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I103" s="4" t="s">
@@ -14386,7 +14389,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6">
-        <f>G104*F104</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I104" s="4" t="s">
@@ -14410,7 +14413,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6">
-        <f>G105*F105</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I105" s="4" t="s">
@@ -14434,7 +14437,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6">
-        <f>G106*F106</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I106" s="4" t="s">
@@ -14458,7 +14461,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6">
-        <f>G107*F107</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I107" s="4" t="s">
@@ -14482,7 +14485,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6">
-        <f>G108*F108</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I108" s="4" t="s">
@@ -14506,7 +14509,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6">
-        <f>G109*F109</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I109" s="4" t="s">
@@ -14530,7 +14533,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6">
-        <f>G110*F110</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I110" s="4" t="s">
@@ -14554,7 +14557,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6">
-        <f>G111*F111</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I111" s="4" t="s">
@@ -14578,7 +14581,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6">
-        <f>G112*F112</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I112" s="4" t="s">
@@ -14602,7 +14605,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6">
-        <f>G113*F113</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I113" s="4" t="s">
@@ -14626,7 +14629,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6">
-        <f>G114*F114</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I114" s="4" t="s">
@@ -14650,7 +14653,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6">
-        <f>G115*F115</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I115" s="4" t="s">
@@ -14674,7 +14677,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6">
-        <f>G116*F116</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I116" s="4" t="s">
@@ -14698,7 +14701,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6">
-        <f>G117*F117</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I117" s="4" t="s">
@@ -14726,7 +14729,7 @@
         <v>7</v>
       </c>
       <c r="H118" s="6">
-        <f>G118*F118</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I118" s="23" t="s">
@@ -14754,7 +14757,7 @@
         <v>9</v>
       </c>
       <c r="H119" s="6">
-        <f>G119*F119</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I119" s="23" t="s">
@@ -14782,7 +14785,7 @@
         <v>9</v>
       </c>
       <c r="H120" s="6">
-        <f>G120*F120</f>
+        <f t="shared" ref="H120:H151" si="4">G120*F120</f>
         <v>18</v>
       </c>
       <c r="I120" s="23" t="s">
@@ -14810,7 +14813,7 @@
         <v>6</v>
       </c>
       <c r="H121" s="6">
-        <f>G121*F121</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I121" s="23" t="s">
@@ -14838,7 +14841,7 @@
         <v>12</v>
       </c>
       <c r="H122" s="6">
-        <f>G122*F122</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I122" s="23" t="s">
@@ -14866,7 +14869,7 @@
         <v>15</v>
       </c>
       <c r="H123" s="6">
-        <f>G123*F123</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="I123" s="23" t="s">
@@ -14894,7 +14897,7 @@
         <v>12</v>
       </c>
       <c r="H124" s="6">
-        <f>G124*F124</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I124" s="23" t="s">
@@ -14922,7 +14925,7 @@
         <v>14</v>
       </c>
       <c r="H125" s="6">
-        <f>G125*F125</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="I125" s="23" t="s">
@@ -14950,7 +14953,7 @@
         <v>14</v>
       </c>
       <c r="H126" s="6">
-        <f>G126*F126</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="I126" s="23" t="s">
@@ -14978,7 +14981,7 @@
         <v>16</v>
       </c>
       <c r="H127" s="6">
-        <f>G127*F127</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I127" s="23" t="s">
@@ -15006,7 +15009,7 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="H128" s="6">
-        <f>G128*F128</f>
+        <f t="shared" si="4"/>
         <v>9.9600000000000009</v>
       </c>
       <c r="I128" s="8" t="s">
@@ -15034,7 +15037,7 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="H129" s="6">
-        <f>G129*F129</f>
+        <f t="shared" si="4"/>
         <v>8.1300000000000008</v>
       </c>
       <c r="I129" s="4" t="s">
@@ -15062,7 +15065,7 @@
         <v>3.58</v>
       </c>
       <c r="H130" s="6">
-        <f>G130*F130</f>
+        <f t="shared" si="4"/>
         <v>10.74</v>
       </c>
       <c r="I130" s="4"/>
@@ -15088,7 +15091,7 @@
         <v>5.6</v>
       </c>
       <c r="H131" s="6">
-        <f>G131*F131</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="I131" s="4" t="s">
@@ -15116,7 +15119,7 @@
         <v>1.31</v>
       </c>
       <c r="H132" s="6">
-        <f>G132*F132</f>
+        <f t="shared" si="4"/>
         <v>1.31</v>
       </c>
       <c r="I132" s="4" t="s">
@@ -15144,7 +15147,7 @@
         <v>5.31</v>
       </c>
       <c r="H133" s="6">
-        <f>G133*F133</f>
+        <f t="shared" si="4"/>
         <v>5.31</v>
       </c>
       <c r="I133" s="4" t="s">
@@ -15172,7 +15175,7 @@
         <v>9.68</v>
       </c>
       <c r="H134" s="22">
-        <f>G134*F134</f>
+        <f t="shared" si="4"/>
         <v>9.68</v>
       </c>
       <c r="I134" s="11" t="s">
@@ -15200,7 +15203,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H135" s="6">
-        <f>G135*F135</f>
+        <f t="shared" si="4"/>
         <v>32.200000000000003</v>
       </c>
       <c r="I135" s="4"/>
@@ -15226,7 +15229,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H136" s="6">
-        <f>G136*F136</f>
+        <f t="shared" si="4"/>
         <v>1.845</v>
       </c>
       <c r="I136" s="4"/>
@@ -15252,7 +15255,7 @@
         <v>9.99</v>
       </c>
       <c r="H137" s="6">
-        <f>G137*F137</f>
+        <f t="shared" si="4"/>
         <v>9.99</v>
       </c>
       <c r="I137" s="23" t="s">
@@ -15280,7 +15283,7 @@
         <v>25</v>
       </c>
       <c r="H138" s="6">
-        <f>G138*F138</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I138" s="4"/>
@@ -15306,7 +15309,7 @@
         <v>25</v>
       </c>
       <c r="H139" s="6">
-        <f>G139*F139</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I139" s="4"/>
@@ -15332,7 +15335,7 @@
         <v>25</v>
       </c>
       <c r="H140" s="6">
-        <f>G140*F140</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I140" s="4"/>
@@ -15358,7 +15361,7 @@
         <v>25</v>
       </c>
       <c r="H141" s="6">
-        <f>G141*F141</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I141" s="4"/>
@@ -15384,7 +15387,7 @@
         <v>25</v>
       </c>
       <c r="H142" s="6">
-        <f>G142*F142</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I142" s="4"/>
@@ -15410,7 +15413,7 @@
         <v>34.99</v>
       </c>
       <c r="H143" s="6">
-        <f>G143*F143</f>
+        <f t="shared" si="4"/>
         <v>69.98</v>
       </c>
       <c r="I143" s="4"/>
@@ -15436,7 +15439,7 @@
         <v>6.99</v>
       </c>
       <c r="H144" s="6">
-        <f>G144*F144</f>
+        <f t="shared" si="4"/>
         <v>13.98</v>
       </c>
       <c r="I144" s="4"/>
@@ -15462,7 +15465,7 @@
         <v>29.99</v>
       </c>
       <c r="H145" s="6">
-        <f>G145*F145</f>
+        <f t="shared" si="4"/>
         <v>59.98</v>
       </c>
       <c r="I145" s="4"/>
@@ -15488,7 +15491,7 @@
         <v>24.99</v>
       </c>
       <c r="H146" s="6">
-        <f>G146*F146</f>
+        <f t="shared" si="4"/>
         <v>49.98</v>
       </c>
       <c r="I146" s="4"/>
@@ -15514,7 +15517,7 @@
         <v>44.99</v>
       </c>
       <c r="H147" s="6">
-        <f>G147*F147</f>
+        <f t="shared" si="4"/>
         <v>89.98</v>
       </c>
       <c r="I147" s="4"/>
@@ -15540,7 +15543,7 @@
         <v>39.99</v>
       </c>
       <c r="H148" s="6">
-        <f>G148*F148</f>
+        <f t="shared" si="4"/>
         <v>79.98</v>
       </c>
       <c r="I148" s="4"/>
@@ -15566,7 +15569,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H149" s="6">
-        <f>G149*F149</f>
+        <f t="shared" si="4"/>
         <v>39.979999999999997</v>
       </c>
       <c r="I149" s="4"/>
@@ -15592,7 +15595,7 @@
         <v>13.99</v>
       </c>
       <c r="H150" s="6">
-        <f>G150*F150</f>
+        <f t="shared" si="4"/>
         <v>13.99</v>
       </c>
       <c r="I150" s="4"/>
@@ -15750,9 +15753,10 @@
     <hyperlink ref="D141" r:id="rId81" xr:uid="{CB02DBD8-936A-4AB7-8B98-A0DBF007AA75}"/>
     <hyperlink ref="D89" r:id="rId82" xr:uid="{14CD5804-AA31-453E-8C44-E99762472535}"/>
     <hyperlink ref="I50" r:id="rId83" display="EXTRA SHEET: $42.50          LDO ALTERATIVE" xr:uid="{8F92C03F-0418-4FBD-99A8-E105ADF2505B}"/>
+    <hyperlink ref="I58" r:id="rId84" xr:uid="{A4F9E1ED-AC03-42FD-88D9-676B6E41A151}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId84"/>
-  <drawing r:id="rId85"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId85"/>
+  <drawing r:id="rId86"/>
 </worksheet>
 </file>
--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61923615-7338-447A-82B6-B7E5BAFFB4F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E48F610-4B05-4D80-A1A4-A7EC5F63A775}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="2295" windowWidth="25755" windowHeight="13305" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
+    <workbookView xWindow="5715" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>42STH25-1004AC</t>
   </si>
   <si>
-    <t>6MM X 1290MM LG</t>
-  </si>
-  <si>
     <t>MULDEX-22</t>
   </si>
   <si>
@@ -1002,6 +999,9 @@
   </si>
   <si>
     <t>LDO POWER COATED ALTERATIVE $60.00</t>
+  </si>
+  <si>
+    <t>6MM X 1290MM LG 2580</t>
   </si>
 </sst>
 </file>
@@ -11847,8 +11847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF5A505-CFB3-4021-9A3B-B7B5A3891831}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11870,17 +11870,17 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="F1" s="18">
         <f>SUM(H3:H146)</f>
         <v>2693.8849999999993</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="17"/>
@@ -11902,16 +11902,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -11919,13 +11919,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -11939,7 +11939,7 @@
         <v>135</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -11947,13 +11947,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -11969,13 +11969,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -11991,13 +11991,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -12013,13 +12013,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -12035,13 +12035,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -12057,13 +12057,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -12079,13 +12079,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -12101,13 +12101,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -12123,13 +12123,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -12148,10 +12148,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -12167,13 +12167,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -12189,13 +12189,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -12211,13 +12211,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -12233,13 +12233,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -12255,13 +12255,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -12277,13 +12277,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="4"/>
@@ -12299,13 +12299,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -12321,13 +12321,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -12343,13 +12343,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -12365,13 +12365,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -12387,13 +12387,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -12409,13 +12409,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -12431,13 +12431,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -12453,13 +12453,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -12475,13 +12475,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -12497,13 +12497,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -12519,13 +12519,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -12544,10 +12544,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
@@ -12563,13 +12563,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -12588,10 +12588,10 @@
         <v>12</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -12610,10 +12610,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -12632,10 +12632,10 @@
         <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -12654,10 +12654,10 @@
         <v>21</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -12673,13 +12673,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -12698,10 +12698,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -12717,13 +12717,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -12742,10 +12742,10 @@
         <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -12764,10 +12764,10 @@
         <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -12786,10 +12786,10 @@
         <v>22</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -12808,10 +12808,10 @@
         <v>23</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -12827,13 +12827,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4">
@@ -12853,13 +12853,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4">
@@ -12873,7 +12873,7 @@
         <v>5.99</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -12881,13 +12881,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4">
@@ -12910,10 +12910,10 @@
         <v>9</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4">
@@ -12934,10 +12934,10 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4">
@@ -12951,7 +12951,7 @@
         <v>42.99</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -12959,13 +12959,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="D49" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4">
@@ -12979,7 +12979,7 @@
         <v>149.97</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -12987,13 +12987,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4">
@@ -13007,7 +13007,7 @@
         <v>140</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13015,13 +13015,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4">
@@ -13041,13 +13041,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4">
@@ -13061,7 +13061,7 @@
         <v>11.99</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13072,10 +13072,10 @@
         <v>5630</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4">
@@ -13098,10 +13098,10 @@
         <v>18</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4">
@@ -13121,13 +13121,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
@@ -13144,16 +13144,16 @@
     </row>
     <row r="56" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
@@ -13170,16 +13170,16 @@
     </row>
     <row r="57" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4">
@@ -13199,13 +13199,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4">
@@ -13219,7 +13219,7 @@
         <v>17.97</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13227,13 +13227,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4">
@@ -13253,13 +13253,13 @@
         <v>18</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4">
@@ -13279,13 +13279,13 @@
         <v>2</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4">
@@ -13308,10 +13308,10 @@
         <v>5</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4">
@@ -13334,10 +13334,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4">
@@ -13357,13 +13357,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12">
@@ -13383,13 +13383,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4">
@@ -13409,13 +13409,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4">
@@ -13435,13 +13435,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4">
@@ -13451,7 +13451,7 @@
         <v>34.99</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" ref="H67:H98" si="2">G67*F67</f>
+        <f t="shared" ref="H67:H85" si="2">G67*F67</f>
         <v>34.99</v>
       </c>
       <c r="I67" s="4"/>
@@ -13461,13 +13461,13 @@
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4">
@@ -13487,13 +13487,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="D69" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4">
@@ -13513,13 +13513,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4">
@@ -13539,13 +13539,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4">
@@ -13565,13 +13565,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4">
@@ -13585,7 +13585,7 @@
         <v>109.98</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13593,13 +13593,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4">
@@ -13619,13 +13619,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4">
@@ -13645,13 +13645,13 @@
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4">
@@ -13665,7 +13665,7 @@
         <v>60</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13673,13 +13673,13 @@
         <v>2</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4">
@@ -13693,7 +13693,7 @@
         <v>50</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13701,13 +13701,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4">
@@ -13721,7 +13721,7 @@
         <v>35</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13729,13 +13729,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4">
@@ -13755,13 +13755,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4">
@@ -13781,13 +13781,13 @@
         <v>8</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -13797,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13808,10 +13808,10 @@
         <v>26</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4">
@@ -13825,7 +13825,7 @@
         <v>32</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13833,13 +13833,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4">
@@ -13853,7 +13853,7 @@
         <v>64</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13861,13 +13861,13 @@
         <v>3</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4">
@@ -13881,7 +13881,7 @@
         <v>120</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13889,13 +13889,13 @@
         <v>6</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4">
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13915,13 +13915,13 @@
         <v>6</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13944,10 +13944,10 @@
         <v>15</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4">
@@ -13956,7 +13956,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13964,13 +13964,13 @@
         <v>17</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4">
@@ -13979,7 +13979,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -13987,13 +13987,13 @@
         <v>1</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>304</v>
-      </c>
       <c r="D88" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4">
@@ -14013,13 +14013,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4">
@@ -14033,7 +14033,7 @@
         <v>7</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14041,13 +14041,13 @@
         <v>16</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -14057,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14065,13 +14065,13 @@
         <v>43</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -14081,7 +14081,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14089,13 +14089,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -14105,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14113,13 +14113,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14137,13 +14137,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14161,13 +14161,13 @@
         <v>47</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -14177,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14185,13 +14185,13 @@
         <v>37</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -14201,7 +14201,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="2" customFormat="1" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14209,13 +14209,13 @@
         <v>2</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="3" customFormat="1" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14233,13 +14233,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14257,13 +14257,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -14273,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14281,13 +14281,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -14297,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14305,13 +14305,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -14321,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14329,13 +14329,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14353,13 +14353,13 @@
         <v>69</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14377,13 +14377,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -14393,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14401,13 +14401,13 @@
         <v>15</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -14417,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14425,13 +14425,13 @@
         <v>10</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -14441,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14449,13 +14449,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14473,13 +14473,13 @@
         <v>3</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14497,13 +14497,13 @@
         <v>6</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -14513,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14521,13 +14521,13 @@
         <v>22</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -14537,7 +14537,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14545,13 +14545,13 @@
         <v>1</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -14561,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14569,13 +14569,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14593,13 +14593,13 @@
         <v>43</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14617,13 +14617,13 @@
         <v>12</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -14633,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14641,13 +14641,13 @@
         <v>48</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14665,13 +14665,13 @@
         <v>22</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14689,13 +14689,13 @@
         <v>2</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -14705,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14713,13 +14713,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4">
@@ -14733,7 +14733,7 @@
         <v>7</v>
       </c>
       <c r="I118" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14741,13 +14741,13 @@
         <v>1</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4">
@@ -14761,7 +14761,7 @@
         <v>9</v>
       </c>
       <c r="I119" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14769,13 +14769,13 @@
         <v>2</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4">
@@ -14785,11 +14785,11 @@
         <v>9</v>
       </c>
       <c r="H120" s="6">
-        <f t="shared" ref="H120:H151" si="4">G120*F120</f>
+        <f t="shared" ref="H120:H150" si="4">G120*F120</f>
         <v>18</v>
       </c>
       <c r="I120" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14797,13 +14797,13 @@
         <v>2</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4">
@@ -14817,7 +14817,7 @@
         <v>12</v>
       </c>
       <c r="I121" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14825,13 +14825,13 @@
         <v>2</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4">
@@ -14845,7 +14845,7 @@
         <v>24</v>
       </c>
       <c r="I122" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14853,13 +14853,13 @@
         <v>2</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4">
@@ -14873,7 +14873,7 @@
         <v>30</v>
       </c>
       <c r="I123" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14881,13 +14881,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4">
@@ -14901,7 +14901,7 @@
         <v>12</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14909,13 +14909,13 @@
         <v>2</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4">
@@ -14929,7 +14929,7 @@
         <v>28</v>
       </c>
       <c r="I125" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14937,13 +14937,13 @@
         <v>2</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4">
@@ -14957,7 +14957,7 @@
         <v>28</v>
       </c>
       <c r="I126" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14965,13 +14965,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4">
@@ -14985,7 +14985,7 @@
         <v>16</v>
       </c>
       <c r="I127" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -14993,13 +14993,13 @@
         <v>2</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4">
@@ -15013,7 +15013,7 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -15024,10 +15024,10 @@
         <v>14</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4">
@@ -15041,7 +15041,7 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -15049,13 +15049,13 @@
         <v>3</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4">
@@ -15075,13 +15075,13 @@
         <v>5</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4">
@@ -15095,7 +15095,7 @@
         <v>28</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -15103,13 +15103,13 @@
         <v>4</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4">
@@ -15123,7 +15123,7 @@
         <v>1.31</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -15134,10 +15134,10 @@
         <v>11</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4">
@@ -15151,7 +15151,7 @@
         <v>5.31</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -15159,13 +15159,13 @@
         <v>5</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11">
@@ -15179,7 +15179,7 @@
         <v>9.68</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -15187,13 +15187,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4">
@@ -15216,10 +15216,10 @@
         <v>10</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4">
@@ -15239,13 +15239,13 @@
         <v>2</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4">
@@ -15259,7 +15259,7 @@
         <v>9.99</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -15270,10 +15270,10 @@
         <v>6</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4">
@@ -15293,13 +15293,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4">
@@ -15322,10 +15322,10 @@
         <v>20</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4">
@@ -15345,13 +15345,13 @@
         <v>1</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4">
@@ -15371,13 +15371,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4">
@@ -15397,13 +15397,13 @@
         <v>2</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4">
@@ -15423,13 +15423,13 @@
         <v>2</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4">
@@ -15449,13 +15449,13 @@
         <v>2</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4">
@@ -15475,13 +15475,13 @@
         <v>2</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4">
@@ -15501,13 +15501,13 @@
         <v>2</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4">
@@ -15527,13 +15527,13 @@
         <v>2</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4">
@@ -15553,13 +15553,13 @@
         <v>2</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4">
@@ -15579,13 +15579,13 @@
         <v>2</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4">

--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D19931-4FEB-40BF-8F29-C71F235DB800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D651307E-8108-4F39-AA43-6563009D2D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="0" windowWidth="26595" windowHeight="13500" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
+    <workbookView xWindow="5475" yWindow="1800" windowWidth="22560" windowHeight="11385" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENTS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="492">
   <si>
     <t>QTY</t>
   </si>
@@ -829,9 +829,6 @@
     <t xml:space="preserve">LDO ALTERATIVE </t>
   </si>
   <si>
-    <t>https://amzn.to/3vK8JdO</t>
-  </si>
-  <si>
     <t>ENDSTOP SWITCH</t>
   </si>
   <si>
@@ -1492,9 +1489,6 @@
     <t>IEC CONNECTOR ASSY -  UL</t>
   </si>
   <si>
-    <t>4304.6072</t>
-  </si>
-  <si>
     <t>IEC INLET C14 W/SWITCH</t>
   </si>
   <si>
@@ -1523,6 +1517,9 @@
   </si>
   <si>
     <t xml:space="preserve">OPTIONAL </t>
+  </si>
+  <si>
+    <t>HONG</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1671,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1709,6 +1706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -6712,96 +6710,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="218" name="Picture 217">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E74B07-9029-43EE-BDCE-C0538F0EC930}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9677400" y="41624250"/>
-          <a:ext cx="876300" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="219" name="Picture 218">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F469E261-7888-4702-A137-6D4F9D2D4069}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9677400" y="42471975"/>
-          <a:ext cx="876300" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6826,7 +6734,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -6871,7 +6779,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -6916,7 +6824,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -6961,7 +6869,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -16448,7 +16356,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16535,7 +16443,7 @@
         <v>135</v>
       </c>
       <c r="H3" s="4">
-        <f>G3*F3</f>
+        <f t="shared" ref="H3:H34" si="0">G3*F3</f>
         <v>135</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -16559,7 +16467,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <f>G4*F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -16581,7 +16489,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f>G5*F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
@@ -16607,7 +16515,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="H6" s="4">
-        <f>G6*F6</f>
+        <f t="shared" si="0"/>
         <v>2.1800000000000002</v>
       </c>
       <c r="I6" s="2"/>
@@ -16617,10 +16525,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>298</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>299</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>174</v>
@@ -16633,7 +16541,7 @@
         <v>12.5</v>
       </c>
       <c r="H7" s="4">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="I7" s="2"/>
@@ -16643,10 +16551,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>174</v>
@@ -16659,7 +16567,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="4">
-        <f>G8*F8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I8" s="2"/>
@@ -16683,11 +16591,11 @@
         <v>42.99</v>
       </c>
       <c r="H9" s="4">
-        <f>G9*F9</f>
+        <f t="shared" si="0"/>
         <v>42.99</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -16711,7 +16619,7 @@
         <v>49.99</v>
       </c>
       <c r="H10" s="4">
-        <f>G10*F10</f>
+        <f t="shared" si="0"/>
         <v>149.97</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -16739,11 +16647,11 @@
         <v>140</v>
       </c>
       <c r="H11" s="4">
-        <f>G11*F11</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -16767,7 +16675,7 @@
         <v>11.99</v>
       </c>
       <c r="H12" s="4">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>23.98</v>
       </c>
       <c r="I12" s="2"/>
@@ -16777,7 +16685,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>126</v>
@@ -16793,7 +16701,7 @@
         <v>11.99</v>
       </c>
       <c r="H13" s="4">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
       <c r="I13" s="2"/>
@@ -16819,7 +16727,7 @@
         <v>3.81</v>
       </c>
       <c r="H14" s="4">
-        <f>G14*F14</f>
+        <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
       <c r="I14" s="2"/>
@@ -16829,10 +16737,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>183</v>
@@ -16845,7 +16753,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="4">
-        <f>G15*F15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I15" s="2"/>
@@ -16871,7 +16779,7 @@
         <v>2.99</v>
       </c>
       <c r="H16" s="4">
-        <f>G16*F16</f>
+        <f t="shared" si="0"/>
         <v>5.98</v>
       </c>
       <c r="I16" s="2"/>
@@ -16897,7 +16805,7 @@
         <v>4.99</v>
       </c>
       <c r="H17" s="4">
-        <f>G17*F17</f>
+        <f t="shared" si="0"/>
         <v>19.96</v>
       </c>
       <c r="I17" s="2"/>
@@ -16923,7 +16831,7 @@
         <v>6.99</v>
       </c>
       <c r="H18" s="4">
-        <f>G18*F18</f>
+        <f t="shared" si="0"/>
         <v>69.900000000000006</v>
       </c>
       <c r="I18" s="2"/>
@@ -16949,7 +16857,7 @@
         <v>7.49</v>
       </c>
       <c r="H19" s="4">
-        <f>G19*F19</f>
+        <f t="shared" si="0"/>
         <v>59.92</v>
       </c>
       <c r="I19" s="2"/>
@@ -16975,7 +16883,7 @@
         <v>5.99</v>
       </c>
       <c r="H20" s="4">
-        <f>G20*F20</f>
+        <f t="shared" si="0"/>
         <v>17.97</v>
       </c>
       <c r="I20" s="20" t="s">
@@ -17003,7 +16911,7 @@
         <v>6.99</v>
       </c>
       <c r="H21" s="4">
-        <f>G21*F21</f>
+        <f t="shared" si="0"/>
         <v>20.97</v>
       </c>
       <c r="I21" s="2"/>
@@ -17029,7 +16937,7 @@
         <v>9.99</v>
       </c>
       <c r="H22" s="4">
-        <f>G22*F22</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="I22" s="2"/>
@@ -17039,7 +16947,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>250</v>
@@ -17055,7 +16963,7 @@
         <v>12.77</v>
       </c>
       <c r="H23" s="4">
-        <f>G23*F23</f>
+        <f t="shared" si="0"/>
         <v>25.54</v>
       </c>
       <c r="I23" s="2"/>
@@ -17081,7 +16989,7 @@
         <v>22.47</v>
       </c>
       <c r="H24" s="4">
-        <f>G24*F24</f>
+        <f t="shared" si="0"/>
         <v>44.94</v>
       </c>
       <c r="I24" s="2"/>
@@ -17107,7 +17015,7 @@
         <v>99.99</v>
       </c>
       <c r="H25" s="4">
-        <f>G25*F25</f>
+        <f t="shared" si="0"/>
         <v>99.99</v>
       </c>
       <c r="I25" s="2"/>
@@ -17133,7 +17041,7 @@
         <v>12.74</v>
       </c>
       <c r="H26" s="4">
-        <f>G26*F26</f>
+        <f t="shared" si="0"/>
         <v>38.22</v>
       </c>
       <c r="I26" s="2"/>
@@ -17159,7 +17067,7 @@
         <v>21.99</v>
       </c>
       <c r="H27" s="4">
-        <f>G27*F27</f>
+        <f t="shared" si="0"/>
         <v>21.99</v>
       </c>
       <c r="I27" s="2"/>
@@ -17185,7 +17093,7 @@
         <v>34.99</v>
       </c>
       <c r="H28" s="4">
-        <f>G28*F28</f>
+        <f t="shared" si="0"/>
         <v>34.99</v>
       </c>
       <c r="I28" s="2"/>
@@ -17211,7 +17119,7 @@
         <v>169.99</v>
       </c>
       <c r="H29" s="4">
-        <f>G29*F29</f>
+        <f t="shared" si="0"/>
         <v>169.99</v>
       </c>
       <c r="I29" s="2"/>
@@ -17237,7 +17145,7 @@
         <v>74.989999999999995</v>
       </c>
       <c r="H30" s="4">
-        <f>G30*F30</f>
+        <f t="shared" si="0"/>
         <v>74.989999999999995</v>
       </c>
       <c r="I30" s="2"/>
@@ -17263,7 +17171,7 @@
         <v>54.99</v>
       </c>
       <c r="H31" s="4">
-        <f>G31*F31</f>
+        <f t="shared" si="0"/>
         <v>109.98</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -17291,11 +17199,11 @@
         <v>20</v>
       </c>
       <c r="H32" s="4">
-        <f>G32*F32</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -17319,11 +17227,11 @@
         <v>25</v>
       </c>
       <c r="H33" s="4">
-        <f>G33*F33</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -17347,11 +17255,11 @@
         <v>35</v>
       </c>
       <c r="H34" s="4">
-        <f>G34*F34</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -17375,7 +17283,7 @@
         <v>2.99</v>
       </c>
       <c r="H35" s="4">
-        <f>G35*F35</f>
+        <f t="shared" ref="H35:H66" si="1">G35*F35</f>
         <v>2.99</v>
       </c>
       <c r="I35" s="2"/>
@@ -17390,7 +17298,7 @@
       <c r="C36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="24" t="s">
         <v>180</v>
       </c>
       <c r="E36" s="2"/>
@@ -17401,7 +17309,7 @@
         <v>86.5</v>
       </c>
       <c r="H36" s="4">
-        <f>G36*F36</f>
+        <f t="shared" si="1"/>
         <v>86.5</v>
       </c>
       <c r="I36" s="2"/>
@@ -17416,7 +17324,7 @@
       <c r="C37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="24" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="2"/>
@@ -17427,11 +17335,11 @@
         <v>16</v>
       </c>
       <c r="H37" s="4">
-        <f>G37*F37</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -17444,7 +17352,7 @@
       <c r="C38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="24" t="s">
         <v>177</v>
       </c>
       <c r="E38" s="2"/>
@@ -17455,11 +17363,11 @@
         <v>16</v>
       </c>
       <c r="H38" s="4">
-        <f>G38*F38</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -17467,12 +17375,12 @@
         <v>1</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D39" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>177</v>
       </c>
       <c r="E39" s="2"/>
@@ -17483,11 +17391,11 @@
         <v>55</v>
       </c>
       <c r="H39" s="4">
-        <f>G39*F39</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -17495,13 +17403,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>177</v>
+        <v>261</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>491</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2">
@@ -17511,24 +17419,22 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="H40" s="4">
-        <f>G40*F40</f>
+        <f t="shared" si="1"/>
         <v>9.9600000000000009</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="68.099999999999994" customHeight="1">
       <c r="A41" s="2">
         <v>1</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="24" t="s">
         <v>177</v>
       </c>
       <c r="E41" s="2"/>
@@ -17539,7 +17445,7 @@
         <v>55</v>
       </c>
       <c r="H41" s="4">
-        <f>G41*F41</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="I41" s="2"/>
@@ -17549,13 +17455,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="24" t="s">
         <v>292</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2">
@@ -17565,7 +17471,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="4">
-        <f>G42*F42</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I42" s="2"/>
@@ -17580,7 +17486,7 @@
       <c r="C43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="24" t="s">
         <v>176</v>
       </c>
       <c r="E43" s="2"/>
@@ -17591,7 +17497,7 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="H43" s="4">
-        <f>G43*F43</f>
+        <f t="shared" si="1"/>
         <v>8.1300000000000008</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -17608,7 +17514,7 @@
       <c r="C44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="24" t="s">
         <v>176</v>
       </c>
       <c r="E44" s="2"/>
@@ -17619,7 +17525,7 @@
         <v>3.58</v>
       </c>
       <c r="H44" s="4">
-        <f>G44*F44</f>
+        <f t="shared" si="1"/>
         <v>10.74</v>
       </c>
       <c r="I44" s="2"/>
@@ -17634,7 +17540,7 @@
       <c r="C45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="24" t="s">
         <v>176</v>
       </c>
       <c r="E45" s="2"/>
@@ -17645,7 +17551,7 @@
         <v>5.6</v>
       </c>
       <c r="H45" s="4">
-        <f>G45*F45</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -17662,7 +17568,7 @@
       <c r="C46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="24" t="s">
         <v>176</v>
       </c>
       <c r="E46" s="2"/>
@@ -17673,11 +17579,11 @@
         <v>1.31</v>
       </c>
       <c r="H46" s="4">
-        <f>G46*F46</f>
+        <f t="shared" si="1"/>
         <v>1.31</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -17690,7 +17596,7 @@
       <c r="C47" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="24" t="s">
         <v>181</v>
       </c>
       <c r="E47" s="2"/>
@@ -17701,7 +17607,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H47" s="4">
-        <f>G47*F47</f>
+        <f t="shared" si="1"/>
         <v>32.200000000000003</v>
       </c>
       <c r="I47" s="2"/>
@@ -17716,7 +17622,7 @@
       <c r="C48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="24" t="s">
         <v>187</v>
       </c>
       <c r="E48" s="2"/>
@@ -17727,11 +17633,11 @@
         <v>9.99</v>
       </c>
       <c r="H48" s="4">
-        <f>G48*F48</f>
+        <f t="shared" si="1"/>
         <v>9.99</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -17744,7 +17650,7 @@
       <c r="C49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E49" s="2"/>
@@ -17755,7 +17661,7 @@
         <v>25</v>
       </c>
       <c r="H49" s="4">
-        <f>G49*F49</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I49" s="2"/>
@@ -17770,7 +17676,7 @@
       <c r="C50" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E50" s="2"/>
@@ -17781,7 +17687,7 @@
         <v>25</v>
       </c>
       <c r="H50" s="4">
-        <f>G50*F50</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I50" s="2"/>
@@ -17796,7 +17702,7 @@
       <c r="C51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E51" s="2"/>
@@ -17807,7 +17713,7 @@
         <v>25</v>
       </c>
       <c r="H51" s="4">
-        <f>G51*F51</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I51" s="2"/>
@@ -17817,12 +17723,12 @@
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E52" s="2"/>
@@ -17833,7 +17739,7 @@
         <v>25</v>
       </c>
       <c r="H52" s="4">
-        <f>G52*F52</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I52" s="2"/>
@@ -17848,7 +17754,7 @@
       <c r="C53" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E53" s="2"/>
@@ -17859,7 +17765,7 @@
         <v>25</v>
       </c>
       <c r="H53" s="4">
-        <f>G53*F53</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I53" s="2"/>
@@ -17868,14 +17774,14 @@
       <c r="A54" s="22">
         <v>1</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="22">
+        <v>4304.6072000000004</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="D54" s="24" t="s">
         <v>482</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2">
@@ -17885,7 +17791,7 @@
         <v>9</v>
       </c>
       <c r="H54" s="4">
-        <f>G54*F54</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I54" s="2"/>
@@ -17911,7 +17817,7 @@
         <v>34.99</v>
       </c>
       <c r="H55" s="4">
-        <f>G55*F55</f>
+        <f t="shared" si="1"/>
         <v>69.98</v>
       </c>
       <c r="I55" s="2"/>
@@ -17937,7 +17843,7 @@
         <v>6.99</v>
       </c>
       <c r="H56" s="4">
-        <f>G56*F56</f>
+        <f t="shared" si="1"/>
         <v>13.98</v>
       </c>
       <c r="I56" s="2"/>
@@ -17963,7 +17869,7 @@
         <v>29.99</v>
       </c>
       <c r="H57" s="4">
-        <f>G57*F57</f>
+        <f t="shared" si="1"/>
         <v>59.98</v>
       </c>
       <c r="I57" s="2"/>
@@ -17989,7 +17895,7 @@
         <v>24.99</v>
       </c>
       <c r="H58" s="4">
-        <f>G58*F58</f>
+        <f t="shared" si="1"/>
         <v>49.98</v>
       </c>
       <c r="I58" s="2"/>
@@ -18002,7 +17908,7 @@
         <v>202</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>178</v>
@@ -18015,7 +17921,7 @@
         <v>44.99</v>
       </c>
       <c r="H59" s="4">
-        <f>G59*F59</f>
+        <f t="shared" si="1"/>
         <v>89.98</v>
       </c>
       <c r="I59" s="2"/>
@@ -18041,7 +17947,7 @@
         <v>39.99</v>
       </c>
       <c r="H60" s="4">
-        <f>G60*F60</f>
+        <f t="shared" si="1"/>
         <v>79.98</v>
       </c>
       <c r="I60" s="2"/>
@@ -18067,7 +17973,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="H61" s="4">
-        <f>G61*F61</f>
+        <f t="shared" si="1"/>
         <v>39.979999999999997</v>
       </c>
       <c r="I61" s="2"/>
@@ -18093,7 +17999,7 @@
         <v>13.99</v>
       </c>
       <c r="H62" s="4">
-        <f>G62*F62</f>
+        <f t="shared" si="1"/>
         <v>13.99</v>
       </c>
       <c r="I62" s="2"/>
@@ -18103,19 +18009,19 @@
         <v>1</v>
       </c>
       <c r="B63" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>485</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>487</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4">
-        <f>G63*F63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
@@ -18168,59 +18074,59 @@
     <hyperlink ref="D62" r:id="rId5" display="SoundOriginal " xr:uid="{4FD0E751-E6C8-45EF-A6C8-F211BB4DE200}"/>
     <hyperlink ref="D55" r:id="rId6" xr:uid="{5BAF7F4D-2520-49E6-9653-AB96547DE42A}"/>
     <hyperlink ref="D56" r:id="rId7" xr:uid="{44127C58-A47D-4AAA-B02D-987EA9BA2EFF}"/>
-    <hyperlink ref="D44" r:id="rId8" xr:uid="{CD23E1BF-81D3-45CA-B825-DF94C5DAE90D}"/>
-    <hyperlink ref="D45" r:id="rId9" xr:uid="{048B98C3-9ECD-49DB-9D53-AAAE916F3DE9}"/>
-    <hyperlink ref="D43" r:id="rId10" xr:uid="{9046B6D1-F91F-4814-A3C4-154D5AC39EBA}"/>
-    <hyperlink ref="D46" r:id="rId11" xr:uid="{E5F709B3-CAF5-46A4-9DA5-5B0DFA24FB63}"/>
-    <hyperlink ref="D47" r:id="rId12" xr:uid="{3F94E46A-24C6-40AB-8429-1605EB1363D3}"/>
-    <hyperlink ref="D21" r:id="rId13" xr:uid="{CF299C9B-A4EA-4DF4-BF76-B0C1C6B8F7BF}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{CDE3223D-6B16-43F5-AD4B-2BD27EF07DB5}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{FE52626C-8B24-4E2D-BDCC-09FF4F7D42A3}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{EA0E03D4-3D9F-4545-B8A8-85E423CCD2A2}"/>
-    <hyperlink ref="D17" r:id="rId17" xr:uid="{E78B2A29-3F0F-4499-A568-B635AB3C6DBD}"/>
-    <hyperlink ref="D27" r:id="rId18" xr:uid="{1C9B04B5-7306-4F52-8692-3BBB2030FDA8}"/>
-    <hyperlink ref="D28" r:id="rId19" xr:uid="{A593A889-F052-43EA-9231-FB4300E42C93}"/>
-    <hyperlink ref="D35" r:id="rId20" xr:uid="{7606CEAF-5C9E-422B-9291-A108CFD422F3}"/>
-    <hyperlink ref="D29" r:id="rId21" xr:uid="{D05DEDF7-E6EE-4399-AC6D-62F62665B32D}"/>
-    <hyperlink ref="D30" r:id="rId22" xr:uid="{F899B01F-8D4E-47C7-98A4-6BD7C9396C94}"/>
-    <hyperlink ref="D31" r:id="rId23" xr:uid="{1C9EC1F5-5D46-4743-8DB5-5C5F3CCE45EA}"/>
-    <hyperlink ref="D22" r:id="rId24" xr:uid="{373334B7-BC7E-4646-926A-B9574DE19E5E}"/>
-    <hyperlink ref="D25" r:id="rId25" xr:uid="{50E722AC-F890-4789-800A-F280511F9DC7}"/>
-    <hyperlink ref="D16" r:id="rId26" xr:uid="{53368A76-FD9D-4121-A7BE-735E420E7F2D}"/>
-    <hyperlink ref="D12" r:id="rId27" location="!/1-Meter-XS-Low-Friction-1-75mm-Bowden-Tubing/p/82190682/category=23214267" xr:uid="{2E956BF4-B0C4-41A4-9527-5969219C3B0C}"/>
-    <hyperlink ref="D13" r:id="rId28" location="!/1-Meter-TL-Pink-Translucent-1-75mm-Bowden-Tubing/p/166570244/category=23214268" xr:uid="{FCBFCF6F-C0A1-4780-96E0-9D93E10A6691}"/>
-    <hyperlink ref="D36" r:id="rId29" xr:uid="{1846ED1E-DE7D-41C5-89DB-8B4E5A1539A2}"/>
-    <hyperlink ref="D57" r:id="rId30" xr:uid="{AAAB2CC2-2402-44DA-AC5C-62FEA589B91F}"/>
-    <hyperlink ref="D58" r:id="rId31" xr:uid="{4778ED36-50C3-475B-9E92-E2C3DCEA3DA0}"/>
-    <hyperlink ref="D59" r:id="rId32" xr:uid="{D3710943-7D19-4877-BE9C-38A33BAD5101}"/>
-    <hyperlink ref="D26" r:id="rId33" xr:uid="{CEE95579-9495-43A2-A729-F9EF8AEBD94F}"/>
-    <hyperlink ref="D24" r:id="rId34" xr:uid="{7C08BCE6-70BD-4AC2-A8BB-F9E6E85F3CB3}"/>
-    <hyperlink ref="D23" r:id="rId35" xr:uid="{96292D74-2687-44C7-B937-B9B56B1BED91}"/>
-    <hyperlink ref="D49" r:id="rId36" xr:uid="{8BE22508-C6D7-4C00-AE4E-BD630438F217}"/>
-    <hyperlink ref="D50" r:id="rId37" xr:uid="{0455E6EF-F3C1-4DF1-B574-062E6DF466EF}"/>
-    <hyperlink ref="D51" r:id="rId38" xr:uid="{ED03A760-7030-46CD-A114-1850B22F162A}"/>
-    <hyperlink ref="D53" r:id="rId39" xr:uid="{B0955F19-663F-4E11-A896-84FF3FFEA5C0}"/>
-    <hyperlink ref="D60" r:id="rId40" display="https://www.sliceengineering.com/collections/accessories/products/thermistor-high-temperature" xr:uid="{073DB18F-5A57-48E4-8C49-8E97115E54F9}"/>
-    <hyperlink ref="D61" r:id="rId41" xr:uid="{F1DEF47E-847F-4D25-B56B-26651C64475B}"/>
-    <hyperlink ref="D10" r:id="rId42" xr:uid="{6CE9652B-44F9-4E0A-B764-3279302F1E4E}"/>
-    <hyperlink ref="D11" r:id="rId43" xr:uid="{A3072D3B-9E25-41B7-BF3F-8FF49D7803BE}"/>
-    <hyperlink ref="D32" r:id="rId44" xr:uid="{31A35BEE-C00A-4514-833D-41F840F09880}"/>
-    <hyperlink ref="D33" r:id="rId45" xr:uid="{27725C06-D6B4-4F90-9A36-784D2B02D473}"/>
-    <hyperlink ref="D34" r:id="rId46" xr:uid="{C5447EE2-7B7C-47A4-9A14-374C4FEEEF30}"/>
-    <hyperlink ref="I40" r:id="rId47" xr:uid="{9519DB5D-36C9-4674-9892-DD5DC81E34D2}"/>
-    <hyperlink ref="D37" r:id="rId48" xr:uid="{A9EEE849-A017-4F8E-873F-68EF12B1C2F2}"/>
-    <hyperlink ref="D38" r:id="rId49" xr:uid="{EE95CC33-7B1C-47C3-9BCA-528DFFD054F1}"/>
-    <hyperlink ref="I3" r:id="rId50" xr:uid="{E3F3193E-4FF2-4C13-90B6-D9C68B38352D}"/>
-    <hyperlink ref="D36:D54" r:id="rId51" display="LDO" xr:uid="{39400609-8F3E-453C-AE82-3FCFFE48D6F2}"/>
-    <hyperlink ref="D52" r:id="rId52" xr:uid="{BA577654-3217-4A84-9D20-45FDDF550714}"/>
-    <hyperlink ref="I11" r:id="rId53" display="EXTRA SHEET: $42.50          LDO ALTERATIVE" xr:uid="{9385EB62-3F0D-49B6-9382-48AB8C344858}"/>
-    <hyperlink ref="I20" r:id="rId54" xr:uid="{9343A455-0FB2-4F85-AE6B-0E7F4BC32888}"/>
-    <hyperlink ref="D42" r:id="rId55" xr:uid="{00C5A24E-794F-4E4B-BAB7-0B64437E20CF}"/>
-    <hyperlink ref="D41" r:id="rId56" xr:uid="{C6FEEB16-9179-40B4-AB7D-AEBEAA0A3715}"/>
-    <hyperlink ref="D7" r:id="rId57" xr:uid="{87AF916E-ACD1-4423-83E0-98B41C007AA9}"/>
-    <hyperlink ref="D54" r:id="rId58" xr:uid="{D8E663E4-A669-4466-88AF-E58321F838BB}"/>
-    <hyperlink ref="D8" r:id="rId59" xr:uid="{3A1F6B46-74E7-438A-8CFF-89FE4C3B44DB}"/>
-    <hyperlink ref="D15" r:id="rId60" xr:uid="{340A8AFD-8739-410A-B019-CF34534EC365}"/>
+    <hyperlink ref="D46" r:id="rId8" xr:uid="{E5F709B3-CAF5-46A4-9DA5-5B0DFA24FB63}"/>
+    <hyperlink ref="D47" r:id="rId9" xr:uid="{3F94E46A-24C6-40AB-8429-1605EB1363D3}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{CF299C9B-A4EA-4DF4-BF76-B0C1C6B8F7BF}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{CDE3223D-6B16-43F5-AD4B-2BD27EF07DB5}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{FE52626C-8B24-4E2D-BDCC-09FF4F7D42A3}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{EA0E03D4-3D9F-4545-B8A8-85E423CCD2A2}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{E78B2A29-3F0F-4499-A568-B635AB3C6DBD}"/>
+    <hyperlink ref="D27" r:id="rId15" xr:uid="{1C9B04B5-7306-4F52-8692-3BBB2030FDA8}"/>
+    <hyperlink ref="D28" r:id="rId16" xr:uid="{A593A889-F052-43EA-9231-FB4300E42C93}"/>
+    <hyperlink ref="D35" r:id="rId17" xr:uid="{7606CEAF-5C9E-422B-9291-A108CFD422F3}"/>
+    <hyperlink ref="D29" r:id="rId18" xr:uid="{D05DEDF7-E6EE-4399-AC6D-62F62665B32D}"/>
+    <hyperlink ref="D30" r:id="rId19" xr:uid="{F899B01F-8D4E-47C7-98A4-6BD7C9396C94}"/>
+    <hyperlink ref="D31" r:id="rId20" xr:uid="{1C9EC1F5-5D46-4743-8DB5-5C5F3CCE45EA}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{373334B7-BC7E-4646-926A-B9574DE19E5E}"/>
+    <hyperlink ref="D25" r:id="rId22" xr:uid="{50E722AC-F890-4789-800A-F280511F9DC7}"/>
+    <hyperlink ref="D16" r:id="rId23" xr:uid="{53368A76-FD9D-4121-A7BE-735E420E7F2D}"/>
+    <hyperlink ref="D12" r:id="rId24" location="!/1-Meter-XS-Low-Friction-1-75mm-Bowden-Tubing/p/82190682/category=23214267" xr:uid="{2E956BF4-B0C4-41A4-9527-5969219C3B0C}"/>
+    <hyperlink ref="D13" r:id="rId25" location="!/1-Meter-TL-Pink-Translucent-1-75mm-Bowden-Tubing/p/166570244/category=23214268" xr:uid="{FCBFCF6F-C0A1-4780-96E0-9D93E10A6691}"/>
+    <hyperlink ref="D36" r:id="rId26" xr:uid="{1846ED1E-DE7D-41C5-89DB-8B4E5A1539A2}"/>
+    <hyperlink ref="D57" r:id="rId27" xr:uid="{AAAB2CC2-2402-44DA-AC5C-62FEA589B91F}"/>
+    <hyperlink ref="D58" r:id="rId28" xr:uid="{4778ED36-50C3-475B-9E92-E2C3DCEA3DA0}"/>
+    <hyperlink ref="D59" r:id="rId29" xr:uid="{D3710943-7D19-4877-BE9C-38A33BAD5101}"/>
+    <hyperlink ref="D26" r:id="rId30" xr:uid="{CEE95579-9495-43A2-A729-F9EF8AEBD94F}"/>
+    <hyperlink ref="D24" r:id="rId31" xr:uid="{7C08BCE6-70BD-4AC2-A8BB-F9E6E85F3CB3}"/>
+    <hyperlink ref="D23" r:id="rId32" xr:uid="{96292D74-2687-44C7-B937-B9B56B1BED91}"/>
+    <hyperlink ref="D49" r:id="rId33" xr:uid="{8BE22508-C6D7-4C00-AE4E-BD630438F217}"/>
+    <hyperlink ref="D50" r:id="rId34" xr:uid="{0455E6EF-F3C1-4DF1-B574-062E6DF466EF}"/>
+    <hyperlink ref="D51" r:id="rId35" xr:uid="{ED03A760-7030-46CD-A114-1850B22F162A}"/>
+    <hyperlink ref="D53" r:id="rId36" xr:uid="{B0955F19-663F-4E11-A896-84FF3FFEA5C0}"/>
+    <hyperlink ref="D60" r:id="rId37" display="https://www.sliceengineering.com/collections/accessories/products/thermistor-high-temperature" xr:uid="{073DB18F-5A57-48E4-8C49-8E97115E54F9}"/>
+    <hyperlink ref="D61" r:id="rId38" xr:uid="{F1DEF47E-847F-4D25-B56B-26651C64475B}"/>
+    <hyperlink ref="D10" r:id="rId39" xr:uid="{6CE9652B-44F9-4E0A-B764-3279302F1E4E}"/>
+    <hyperlink ref="D11" r:id="rId40" xr:uid="{A3072D3B-9E25-41B7-BF3F-8FF49D7803BE}"/>
+    <hyperlink ref="D32" r:id="rId41" xr:uid="{31A35BEE-C00A-4514-833D-41F840F09880}"/>
+    <hyperlink ref="D33" r:id="rId42" xr:uid="{27725C06-D6B4-4F90-9A36-784D2B02D473}"/>
+    <hyperlink ref="D34" r:id="rId43" xr:uid="{C5447EE2-7B7C-47A4-9A14-374C4FEEEF30}"/>
+    <hyperlink ref="D37" r:id="rId44" xr:uid="{A9EEE849-A017-4F8E-873F-68EF12B1C2F2}"/>
+    <hyperlink ref="D38" r:id="rId45" xr:uid="{EE95CC33-7B1C-47C3-9BCA-528DFFD054F1}"/>
+    <hyperlink ref="I3" r:id="rId46" xr:uid="{E3F3193E-4FF2-4C13-90B6-D9C68B38352D}"/>
+    <hyperlink ref="D52" r:id="rId47" xr:uid="{BA577654-3217-4A84-9D20-45FDDF550714}"/>
+    <hyperlink ref="I11" r:id="rId48" display="EXTRA SHEET: $42.50          LDO ALTERATIVE" xr:uid="{9385EB62-3F0D-49B6-9382-48AB8C344858}"/>
+    <hyperlink ref="I20" r:id="rId49" xr:uid="{9343A455-0FB2-4F85-AE6B-0E7F4BC32888}"/>
+    <hyperlink ref="D42" r:id="rId50" xr:uid="{00C5A24E-794F-4E4B-BAB7-0B64437E20CF}"/>
+    <hyperlink ref="D41" r:id="rId51" xr:uid="{C6FEEB16-9179-40B4-AB7D-AEBEAA0A3715}"/>
+    <hyperlink ref="D7" r:id="rId52" xr:uid="{87AF916E-ACD1-4423-83E0-98B41C007AA9}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{D8E663E4-A669-4466-88AF-E58321F838BB}"/>
+    <hyperlink ref="D8" r:id="rId54" xr:uid="{3A1F6B46-74E7-438A-8CFF-89FE4C3B44DB}"/>
+    <hyperlink ref="D15" r:id="rId55" xr:uid="{340A8AFD-8739-410A-B019-CF34534EC365}"/>
+    <hyperlink ref="D39" r:id="rId56" xr:uid="{525F978C-27BB-4C90-A550-8EE247DA2141}"/>
+    <hyperlink ref="D43" r:id="rId57" xr:uid="{6D74AF2C-3419-4786-BD1A-A2738DE62A66}"/>
+    <hyperlink ref="D44" r:id="rId58" xr:uid="{F9E9FC97-FC0B-433B-93CB-94B68A1355E7}"/>
+    <hyperlink ref="D45" r:id="rId59" xr:uid="{011F3A31-F9FD-4D80-88A8-35432F63D3DE}"/>
+    <hyperlink ref="D40" r:id="rId60" xr:uid="{DB22F0AB-B473-417D-AE8B-FCBA27004C35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId61"/>
@@ -18322,7 +18228,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18378,7 +18284,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18406,7 +18312,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18434,7 +18340,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18462,7 +18368,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18490,7 +18396,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18518,7 +18424,7 @@
         <v>28</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18546,7 +18452,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18574,7 +18480,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18739,13 +18645,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -18753,11 +18659,11 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="4">
-        <f>G3*F3</f>
+        <f t="shared" ref="H3:H42" si="0">G3*F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18765,13 +18671,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
@@ -18779,11 +18685,11 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <f>G4*F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18791,13 +18697,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -18805,11 +18711,11 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f>G5*F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18820,10 +18726,10 @@
         <v>226</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
@@ -18831,11 +18737,11 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f>G6*F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18849,7 +18755,7 @@
         <v>99</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
@@ -18857,11 +18763,11 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18875,7 +18781,7 @@
         <v>219</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -18883,11 +18789,11 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4">
-        <f>G8*F8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18901,7 +18807,7 @@
         <v>219</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -18909,11 +18815,11 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4">
-        <f>G9*F9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18924,10 +18830,10 @@
         <v>224</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
@@ -18935,11 +18841,11 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f>G10*F10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18953,7 +18859,7 @@
         <v>220</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -18961,11 +18867,11 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <f>G11*F11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -18979,7 +18885,7 @@
         <v>220</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
@@ -18987,11 +18893,11 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19005,7 +18911,7 @@
         <v>220</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -19013,11 +18919,11 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19031,7 +18937,7 @@
         <v>220</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
@@ -19039,11 +18945,11 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f>G14*F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19057,7 +18963,7 @@
         <v>220</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
@@ -19065,11 +18971,11 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f>G15*F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19083,7 +18989,7 @@
         <v>220</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
@@ -19091,11 +18997,11 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <f>G16*F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19103,13 +19009,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -19117,11 +19023,11 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
-        <f>G17*F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19135,7 +19041,7 @@
         <v>220</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -19143,11 +19049,11 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4">
-        <f>G18*F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19161,7 +19067,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
@@ -19169,11 +19075,11 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="4">
-        <f>G19*F19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19187,7 +19093,7 @@
         <v>99</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -19195,11 +19101,11 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
-        <f>G20*F20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19213,7 +19119,7 @@
         <v>219</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
@@ -19221,11 +19127,11 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="4">
-        <f>G21*F21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19239,7 +19145,7 @@
         <v>219</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
@@ -19247,11 +19153,11 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="4">
-        <f>G22*F22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19265,7 +19171,7 @@
         <v>218</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
@@ -19273,11 +19179,11 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="4">
-        <f>G23*F23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19291,7 +19197,7 @@
         <v>99</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
@@ -19299,11 +19205,11 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4">
-        <f>G24*F24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19317,7 +19223,7 @@
         <v>219</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
@@ -19325,11 +19231,11 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="4">
-        <f>G25*F25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19340,10 +19246,10 @@
         <v>225</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
@@ -19351,11 +19257,11 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4">
-        <f>G26*F26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19369,7 +19275,7 @@
         <v>219</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
@@ -19377,11 +19283,11 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="4">
-        <f>G27*F27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19395,7 +19301,7 @@
         <v>219</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
@@ -19403,11 +19309,11 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="4">
-        <f>G28*F28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19415,13 +19321,13 @@
         <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
@@ -19429,11 +19335,11 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="4">
-        <f>G29*F29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19447,7 +19353,7 @@
         <v>220</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2">
@@ -19455,11 +19361,11 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="4">
-        <f>G30*F30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19473,7 +19379,7 @@
         <v>220</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
@@ -19481,11 +19387,11 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4">
-        <f>G31*F31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19499,7 +19405,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2">
@@ -19507,11 +19413,11 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="4">
-        <f>G32*F32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19525,7 +19431,7 @@
         <v>220</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2">
@@ -19533,11 +19439,11 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="4">
-        <f>G33*F33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19545,13 +19451,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2">
@@ -19559,11 +19465,11 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="4">
-        <f>G34*F34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19585,11 +19491,11 @@
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4">
-        <f>G35*F35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19611,11 +19517,11 @@
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4">
-        <f>G36*F36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19639,7 +19545,7 @@
         <v>1.99</v>
       </c>
       <c r="H37" s="4">
-        <f>G37*F37</f>
+        <f t="shared" si="0"/>
         <v>17.91</v>
       </c>
       <c r="I37" s="2"/>
@@ -19665,7 +19571,7 @@
         <v>1.99</v>
       </c>
       <c r="H38" s="4">
-        <f>G38*F38</f>
+        <f t="shared" si="0"/>
         <v>11.94</v>
       </c>
       <c r="I38" s="2"/>
@@ -19675,10 +19581,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>177</v>
@@ -19691,7 +19597,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="4">
-        <f>G39*F39</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="I39" s="2"/>
@@ -19717,11 +19623,11 @@
         <v>5.31</v>
       </c>
       <c r="H40" s="4">
-        <f>G40*F40</f>
+        <f t="shared" si="0"/>
         <v>5.31</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19745,11 +19651,11 @@
         <v>9.68</v>
       </c>
       <c r="H41" s="17">
-        <f>G41*F41</f>
+        <f t="shared" si="0"/>
         <v>9.68</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -19773,7 +19679,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H42" s="4">
-        <f>G42*F42</f>
+        <f t="shared" si="0"/>
         <v>1.845</v>
       </c>
       <c r="I42" s="2"/>
@@ -20175,7 +20081,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>121</v>
@@ -20197,7 +20103,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>128</v>
@@ -20747,10 +20653,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>480</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>481</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>172</v>
@@ -20910,10 +20816,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>173</v>
@@ -20934,10 +20840,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>312</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>173</v>
@@ -20958,10 +20864,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>313</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>314</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>173</v>
@@ -20982,10 +20888,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>173</v>
@@ -21006,10 +20912,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>173</v>
@@ -21030,10 +20936,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>320</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>173</v>
@@ -21054,10 +20960,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>322</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>173</v>
@@ -21078,10 +20984,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>324</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>173</v>
@@ -21102,10 +21008,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>325</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>326</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>173</v>
@@ -21126,10 +21032,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>327</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>328</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>173</v>
@@ -21150,10 +21056,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>329</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>330</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>173</v>
@@ -21174,10 +21080,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>332</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>173</v>
@@ -21198,10 +21104,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>333</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>334</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>173</v>
@@ -21222,10 +21128,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>335</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>336</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>173</v>
@@ -21246,10 +21152,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>337</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>338</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>173</v>
@@ -21270,10 +21176,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>339</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>340</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>173</v>
@@ -21294,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>173</v>
@@ -21318,10 +21224,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>342</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>343</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>173</v>
@@ -21342,10 +21248,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>344</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>345</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>173</v>
@@ -21366,10 +21272,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>346</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>347</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>173</v>
@@ -21390,10 +21296,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>348</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>349</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>173</v>
@@ -21414,10 +21320,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>350</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>351</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>173</v>
@@ -21438,10 +21344,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>352</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>353</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>173</v>
@@ -21462,10 +21368,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>354</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>355</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>173</v>
@@ -21486,10 +21392,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>356</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>357</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>173</v>
@@ -21510,10 +21416,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>358</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>359</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>173</v>
@@ -21534,10 +21440,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>360</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>361</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>173</v>
@@ -21558,10 +21464,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>362</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>363</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>173</v>
@@ -21584,10 +21490,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>364</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>365</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>173</v>
@@ -21610,10 +21516,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>366</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>367</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>173</v>
@@ -21634,10 +21540,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>368</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>369</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>173</v>
@@ -21658,10 +21564,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>370</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>371</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>173</v>
@@ -21682,10 +21588,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>372</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>373</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>173</v>
@@ -21706,10 +21612,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>374</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>375</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>173</v>
@@ -21730,10 +21636,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>376</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>377</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>173</v>
@@ -21754,10 +21660,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>378</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>379</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>173</v>
@@ -21778,10 +21684,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>380</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>381</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>173</v>
@@ -21802,10 +21708,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>382</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>383</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>173</v>
@@ -21826,10 +21732,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>173</v>
@@ -21850,10 +21756,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>385</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>386</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>173</v>
@@ -21874,10 +21780,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>387</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>388</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>173</v>
@@ -21898,10 +21804,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>389</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>390</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>173</v>
@@ -21922,10 +21828,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>391</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>392</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>173</v>
@@ -21946,10 +21852,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>393</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>394</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>173</v>
@@ -21970,10 +21876,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>395</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>396</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>173</v>
@@ -21994,10 +21900,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>397</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>398</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>173</v>
@@ -22018,10 +21924,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>399</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>400</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>173</v>
@@ -22042,10 +21948,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>401</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>402</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>173</v>
@@ -22066,10 +21972,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>403</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>404</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>173</v>
@@ -22090,10 +21996,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>405</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>406</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>173</v>
@@ -22114,10 +22020,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>407</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>408</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>173</v>
@@ -22138,10 +22044,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>409</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>410</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>173</v>
@@ -22162,10 +22068,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>411</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>412</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>173</v>
@@ -22186,10 +22092,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>413</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>414</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>173</v>
@@ -22210,10 +22116,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>415</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>416</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>173</v>
@@ -22234,10 +22140,10 @@
         <v>2</v>
       </c>
       <c r="B58" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>417</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>418</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>173</v>
@@ -22258,10 +22164,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>419</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>420</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>173</v>
@@ -22284,10 +22190,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>421</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>422</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>173</v>
@@ -22308,10 +22214,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>423</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>424</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>173</v>
@@ -22332,10 +22238,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>425</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>426</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>173</v>
@@ -22356,10 +22262,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>427</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>428</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>173</v>
@@ -22380,10 +22286,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>429</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>430</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>173</v>
@@ -22404,10 +22310,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>431</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>432</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>173</v>
@@ -22428,10 +22334,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>433</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>434</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>173</v>
@@ -22452,10 +22358,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>435</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>436</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>173</v>
@@ -22478,10 +22384,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>437</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>438</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>173</v>
@@ -22504,10 +22410,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>439</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>440</v>
       </c>
       <c r="D69" s="22" t="s">
         <v>173</v>
@@ -22530,10 +22436,10 @@
         <v>2</v>
       </c>
       <c r="B70" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>441</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>442</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>173</v>
@@ -22556,10 +22462,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>443</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>444</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>173</v>
@@ -22580,10 +22486,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>445</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>446</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>173</v>
@@ -22604,10 +22510,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>447</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>448</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>173</v>
@@ -22628,10 +22534,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>449</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>450</v>
       </c>
       <c r="D74" s="22" t="s">
         <v>173</v>
@@ -22652,10 +22558,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>451</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>452</v>
       </c>
       <c r="D75" s="22" t="s">
         <v>173</v>
@@ -22676,10 +22582,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>453</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>454</v>
       </c>
       <c r="D76" s="22" t="s">
         <v>173</v>
@@ -22700,10 +22606,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>455</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>456</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>173</v>
@@ -22726,10 +22632,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D78" s="22" t="s">
         <v>173</v>
@@ -22752,10 +22658,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79" s="22" t="s">
         <v>458</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>173</v>
@@ -22776,10 +22682,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C80" s="22" t="s">
         <v>460</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>461</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>173</v>
@@ -22800,10 +22706,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>462</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>463</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>173</v>
@@ -22824,10 +22730,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C82" s="22" t="s">
         <v>464</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>465</v>
       </c>
       <c r="D82" s="22" t="s">
         <v>173</v>
@@ -22848,10 +22754,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>466</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>467</v>
       </c>
       <c r="D83" s="22" t="s">
         <v>173</v>
@@ -22872,10 +22778,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C84" s="22" t="s">
         <v>468</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>469</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>173</v>
@@ -22896,10 +22802,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="C85" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>471</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>173</v>
@@ -22914,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="68.099999999999994" customHeight="1">
@@ -22922,10 +22828,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>472</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>473</v>
       </c>
       <c r="D86" s="22" t="s">
         <v>173</v>
@@ -22946,10 +22852,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="C87" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>475</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>173</v>
@@ -22970,10 +22876,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>476</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>477</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>173</v>
@@ -22994,10 +22900,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>478</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>479</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>173</v>

--- a/BOM/MULDEX-BOM.xlsx
+++ b/BOM/MULDEX-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmulac\Documents\GitHub\MULDEX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D651307E-8108-4F39-AA43-6563009D2D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBC6FB-FF01-4B01-9A5D-3AD432C4E28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="1800" windowWidth="22560" windowHeight="11385" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="26715" windowHeight="11385" activeTab="4" xr2:uid="{99F4B122-FCE2-4532-BDF6-34F3C7C48D54}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENTS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="494">
   <si>
     <t>QTY</t>
   </si>
@@ -1520,6 +1520,12 @@
   </si>
   <si>
     <t>HONG</t>
+  </si>
+  <si>
+    <t>Optional-If no filament monitor</t>
+  </si>
+  <si>
+    <t>Optional- for filament monitor</t>
   </si>
 </sst>
 </file>
@@ -16355,7 +16361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FF3C46-43F0-49B8-99DC-A4430EAA455F}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -17283,7 +17289,7 @@
         <v>2.99</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" ref="H35:H66" si="1">G35*F35</f>
+        <f t="shared" ref="H35:H63" si="1">G35*F35</f>
         <v>2.99</v>
       </c>
       <c r="I35" s="2"/>
@@ -20746,7 +20752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BCDE1D-1022-4A14-AEB8-FB335E2FAD79}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21073,7 +21081,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="68.099999999999994" customHeight="1">
       <c r="A14" s="22">
@@ -21101,7 +21111,7 @@
     </row>
     <row r="15" spans="1:9" ht="68.099999999999994" customHeight="1">
       <c r="A15" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>332</v>
@@ -21121,7 +21131,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="68.099999999999994" customHeight="1">
       <c r="A16" s="22">
